--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6852,28 +6852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3406.281692971273</v>
+        <v>3885.783584573076</v>
       </c>
       <c r="AB2" t="n">
-        <v>4660.62488686601</v>
+        <v>5316.700529086109</v>
       </c>
       <c r="AC2" t="n">
-        <v>4215.821388891454</v>
+        <v>4809.282092625989</v>
       </c>
       <c r="AD2" t="n">
-        <v>3406281.692971273</v>
+        <v>3885783.584573076</v>
       </c>
       <c r="AE2" t="n">
-        <v>4660624.886866011</v>
+        <v>5316700.529086109</v>
       </c>
       <c r="AF2" t="n">
         <v>1.633786356045353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.06481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>4215821.388891454</v>
+        <v>4809282.09262599</v>
       </c>
     </row>
     <row r="3">
@@ -6958,28 +6958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2073.515784191969</v>
+        <v>2416.045697816602</v>
       </c>
       <c r="AB3" t="n">
-        <v>2837.075772991722</v>
+        <v>3305.740312166418</v>
       </c>
       <c r="AC3" t="n">
-        <v>2566.309243078248</v>
+        <v>2990.245096408798</v>
       </c>
       <c r="AD3" t="n">
-        <v>2073515.784191968</v>
+        <v>2416045.697816602</v>
       </c>
       <c r="AE3" t="n">
-        <v>2837075.772991722</v>
+        <v>3305740.312166418</v>
       </c>
       <c r="AF3" t="n">
         <v>2.315344309687779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.78935185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>2566309.243078248</v>
+        <v>2990245.096408798</v>
       </c>
     </row>
     <row r="4">
@@ -7064,28 +7064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1782.414372333845</v>
+        <v>2085.824366295863</v>
       </c>
       <c r="AB4" t="n">
-        <v>2438.777978799524</v>
+        <v>2853.916918042588</v>
       </c>
       <c r="AC4" t="n">
-        <v>2206.024431349287</v>
+        <v>2581.543092882155</v>
       </c>
       <c r="AD4" t="n">
-        <v>1782414.372333845</v>
+        <v>2085824.366295862</v>
       </c>
       <c r="AE4" t="n">
-        <v>2438777.978799524</v>
+        <v>2853916.918042589</v>
       </c>
       <c r="AF4" t="n">
         <v>2.585879152011026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.69444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>2206024.431349287</v>
+        <v>2581543.092882155</v>
       </c>
     </row>
     <row r="5">
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1657.085318308057</v>
+        <v>1950.57114035446</v>
       </c>
       <c r="AB5" t="n">
-        <v>2267.297237953804</v>
+        <v>2668.85748735836</v>
       </c>
       <c r="AC5" t="n">
-        <v>2050.909571735152</v>
+        <v>2414.145474529887</v>
       </c>
       <c r="AD5" t="n">
-        <v>1657085.318308057</v>
+        <v>1950571.14035446</v>
       </c>
       <c r="AE5" t="n">
-        <v>2267297.237953804</v>
+        <v>2668857.48735836</v>
       </c>
       <c r="AF5" t="n">
         <v>2.729486369063817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>2050909.571735152</v>
+        <v>2414145.474529887</v>
       </c>
     </row>
     <row r="6">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1582.242165850139</v>
+        <v>1866.04095185268</v>
       </c>
       <c r="AB6" t="n">
-        <v>2164.893534914027</v>
+        <v>2553.199554241501</v>
       </c>
       <c r="AC6" t="n">
-        <v>1958.279134388991</v>
+        <v>2309.525772222772</v>
       </c>
       <c r="AD6" t="n">
-        <v>1582242.165850139</v>
+        <v>1866040.95185268</v>
       </c>
       <c r="AE6" t="n">
-        <v>2164893.534914027</v>
+        <v>2553199.554241501</v>
       </c>
       <c r="AF6" t="n">
         <v>2.818851011214704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.68287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1958279.134388991</v>
+        <v>2309525.772222772</v>
       </c>
     </row>
     <row r="7">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1532.269474632091</v>
+        <v>1806.212419556579</v>
       </c>
       <c r="AB7" t="n">
-        <v>2096.518694149953</v>
+        <v>2471.339516905414</v>
       </c>
       <c r="AC7" t="n">
-        <v>1896.429892462749</v>
+        <v>2235.478341958757</v>
       </c>
       <c r="AD7" t="n">
-        <v>1532269.474632091</v>
+        <v>1806212.419556579</v>
       </c>
       <c r="AE7" t="n">
-        <v>2096518.694149953</v>
+        <v>2471339.516905414</v>
       </c>
       <c r="AF7" t="n">
         <v>2.885840591218556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.38657407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1896429.892462749</v>
+        <v>2235478.341958757</v>
       </c>
     </row>
     <row r="8">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1499.690915727646</v>
+        <v>1773.701180459838</v>
       </c>
       <c r="AB8" t="n">
-        <v>2051.943272592309</v>
+        <v>2426.856205278612</v>
       </c>
       <c r="AC8" t="n">
-        <v>1856.108686576569</v>
+        <v>2195.240455160897</v>
       </c>
       <c r="AD8" t="n">
-        <v>1499690.915727646</v>
+        <v>1773701.180459838</v>
       </c>
       <c r="AE8" t="n">
-        <v>2051943.272592309</v>
+        <v>2426856.205278612</v>
       </c>
       <c r="AF8" t="n">
         <v>2.924895245147927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.65740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1856108.686576569</v>
+        <v>2195240.455160897</v>
       </c>
     </row>
     <row r="9">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1468.341334734142</v>
+        <v>1742.317434047553</v>
       </c>
       <c r="AB9" t="n">
-        <v>2009.049392831094</v>
+        <v>2383.915578884149</v>
       </c>
       <c r="AC9" t="n">
-        <v>1817.308538497826</v>
+        <v>2156.398021881974</v>
       </c>
       <c r="AD9" t="n">
-        <v>1468341.334734142</v>
+        <v>1742317.434047553</v>
       </c>
       <c r="AE9" t="n">
-        <v>2009049.392831094</v>
+        <v>2383915.578884149</v>
       </c>
       <c r="AF9" t="n">
         <v>2.961237770332203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.99768518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>1817308.538497826</v>
+        <v>2156398.021881974</v>
       </c>
     </row>
     <row r="10">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1451.862951560104</v>
+        <v>1716.118860440729</v>
       </c>
       <c r="AB10" t="n">
-        <v>1986.502941997417</v>
+        <v>2348.069534675797</v>
       </c>
       <c r="AC10" t="n">
-        <v>1796.913889287573</v>
+        <v>2123.973073822628</v>
       </c>
       <c r="AD10" t="n">
-        <v>1451862.951560104</v>
+        <v>1716118.860440729</v>
       </c>
       <c r="AE10" t="n">
-        <v>1986502.941997417</v>
+        <v>2348069.534675797</v>
       </c>
       <c r="AF10" t="n">
         <v>2.987816632034136e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.53472222222223</v>
       </c>
       <c r="AH10" t="n">
-        <v>1796913.889287573</v>
+        <v>2123973.073822628</v>
       </c>
     </row>
     <row r="11">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1437.072955780595</v>
+        <v>1691.507189001947</v>
       </c>
       <c r="AB11" t="n">
-        <v>1966.266617283329</v>
+        <v>2314.394760022943</v>
       </c>
       <c r="AC11" t="n">
-        <v>1778.608891002337</v>
+        <v>2093.5121723998</v>
       </c>
       <c r="AD11" t="n">
-        <v>1437072.955780595</v>
+        <v>1691507.189001947</v>
       </c>
       <c r="AE11" t="n">
-        <v>1966266.617283328</v>
+        <v>2314394.760022943</v>
       </c>
       <c r="AF11" t="n">
         <v>3.011140939241954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.12962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1778608.891002337</v>
+        <v>2093512.1723998</v>
       </c>
     </row>
     <row r="12">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1416.613997778881</v>
+        <v>1680.835741240725</v>
       </c>
       <c r="AB12" t="n">
-        <v>1938.273768359859</v>
+        <v>2299.79361440499</v>
       </c>
       <c r="AC12" t="n">
-        <v>1753.287640291913</v>
+        <v>2080.304539626788</v>
       </c>
       <c r="AD12" t="n">
-        <v>1416613.997778881</v>
+        <v>1680835.741240725</v>
       </c>
       <c r="AE12" t="n">
-        <v>1938273.768359859</v>
+        <v>2299793.61440499</v>
       </c>
       <c r="AF12" t="n">
         <v>3.027278105275271e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1753287.640291913</v>
+        <v>2080304.539626788</v>
       </c>
     </row>
     <row r="13">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1406.228204880091</v>
+        <v>1670.449948341935</v>
       </c>
       <c r="AB13" t="n">
-        <v>1924.063468326889</v>
+        <v>2285.583314372021</v>
       </c>
       <c r="AC13" t="n">
-        <v>1740.433551349808</v>
+        <v>2067.450450684683</v>
       </c>
       <c r="AD13" t="n">
-        <v>1406228.204880091</v>
+        <v>1670449.948341935</v>
       </c>
       <c r="AE13" t="n">
-        <v>1924063.468326889</v>
+        <v>2285583.314372021</v>
       </c>
       <c r="AF13" t="n">
         <v>3.040703142563493e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.62037037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1740433.551349808</v>
+        <v>2067450.450684683</v>
       </c>
     </row>
     <row r="14">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1396.224261616897</v>
+        <v>1650.624329419469</v>
       </c>
       <c r="AB14" t="n">
-        <v>1910.375631811359</v>
+        <v>2258.457027917726</v>
       </c>
       <c r="AC14" t="n">
-        <v>1728.052062740321</v>
+        <v>2042.913058937604</v>
       </c>
       <c r="AD14" t="n">
-        <v>1396224.261616897</v>
+        <v>1650624.329419469</v>
       </c>
       <c r="AE14" t="n">
-        <v>1910375.631811359</v>
+        <v>2258457.027917725</v>
       </c>
       <c r="AF14" t="n">
         <v>3.05602666997328e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1728052.062740321</v>
+        <v>2042913.058937604</v>
       </c>
     </row>
     <row r="15">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1388.165032933043</v>
+        <v>1642.565100735615</v>
       </c>
       <c r="AB15" t="n">
-        <v>1899.348639578033</v>
+        <v>2247.4300356844</v>
       </c>
       <c r="AC15" t="n">
-        <v>1718.077471169263</v>
+        <v>2032.938467366546</v>
       </c>
       <c r="AD15" t="n">
-        <v>1388165.032933043</v>
+        <v>1642565.100735615</v>
       </c>
       <c r="AE15" t="n">
-        <v>1899348.639578033</v>
+        <v>2247430.0356844</v>
       </c>
       <c r="AF15" t="n">
         <v>3.064705481957585e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.21527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1718077.471169263</v>
+        <v>2032938.467366546</v>
       </c>
     </row>
     <row r="16">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1378.238757449801</v>
+        <v>1632.638825252373</v>
       </c>
       <c r="AB16" t="n">
-        <v>1885.767071545493</v>
+        <v>2233.84846765186</v>
       </c>
       <c r="AC16" t="n">
-        <v>1705.792108927899</v>
+        <v>2020.653105125181</v>
       </c>
       <c r="AD16" t="n">
-        <v>1378238.757449801</v>
+        <v>1632638.825252373</v>
       </c>
       <c r="AE16" t="n">
-        <v>1885767.071545493</v>
+        <v>2233848.46765186</v>
       </c>
       <c r="AF16" t="n">
         <v>3.074875964751692e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1705792.108927899</v>
+        <v>2020653.105125181</v>
       </c>
     </row>
     <row r="17">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1360.843990218589</v>
+        <v>1625.031568261652</v>
       </c>
       <c r="AB17" t="n">
-        <v>1861.966783616779</v>
+        <v>2223.439883028663</v>
       </c>
       <c r="AC17" t="n">
-        <v>1684.263287075187</v>
+        <v>2011.237901209882</v>
       </c>
       <c r="AD17" t="n">
-        <v>1360843.990218589</v>
+        <v>1625031.568261652</v>
       </c>
       <c r="AE17" t="n">
-        <v>1861966.783616779</v>
+        <v>2223439.883028663</v>
       </c>
       <c r="AF17" t="n">
         <v>3.084910841108544e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.87962962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>1684263.287075187</v>
+        <v>2011237.901209882</v>
       </c>
     </row>
     <row r="18">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1354.373402818047</v>
+        <v>1608.840790428323</v>
       </c>
       <c r="AB18" t="n">
-        <v>1853.113440473189</v>
+        <v>2201.286946510397</v>
       </c>
       <c r="AC18" t="n">
-        <v>1676.254894575476</v>
+        <v>1991.199209861078</v>
       </c>
       <c r="AD18" t="n">
-        <v>1354373.402818047</v>
+        <v>1608840.790428323</v>
       </c>
       <c r="AE18" t="n">
-        <v>1853113.440473189</v>
+        <v>2201286.946510397</v>
       </c>
       <c r="AF18" t="n">
         <v>3.093589653092848e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.72916666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1676254.894575476</v>
+        <v>1991199.209861078</v>
       </c>
     </row>
     <row r="19">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1348.187494485837</v>
+        <v>1602.654882096114</v>
       </c>
       <c r="AB19" t="n">
-        <v>1844.649607790044</v>
+        <v>2192.823113827253</v>
       </c>
       <c r="AC19" t="n">
-        <v>1668.598838204547</v>
+        <v>1983.543153490149</v>
       </c>
       <c r="AD19" t="n">
-        <v>1348187.494485837</v>
+        <v>1602654.882096114</v>
       </c>
       <c r="AE19" t="n">
-        <v>1844649.607790045</v>
+        <v>2192823.113827253</v>
       </c>
       <c r="AF19" t="n">
         <v>3.098200271959511e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.65972222222223</v>
       </c>
       <c r="AH19" t="n">
-        <v>1668598.838204547</v>
+        <v>1983543.153490149</v>
       </c>
     </row>
     <row r="20">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1340.646970558453</v>
+        <v>1595.114358168729</v>
       </c>
       <c r="AB20" t="n">
-        <v>1834.33233028816</v>
+        <v>2182.505836325368</v>
       </c>
       <c r="AC20" t="n">
-        <v>1659.266227187052</v>
+        <v>1974.210542472654</v>
       </c>
       <c r="AD20" t="n">
-        <v>1340646.970558453</v>
+        <v>1595114.358168729</v>
       </c>
       <c r="AE20" t="n">
-        <v>1834332.33028816</v>
+        <v>2182505.836325368</v>
       </c>
       <c r="AF20" t="n">
         <v>3.103082103700682e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.5787037037037</v>
       </c>
       <c r="AH20" t="n">
-        <v>1659266.227187052</v>
+        <v>1974210.542472654</v>
       </c>
     </row>
     <row r="21">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1331.634086090788</v>
+        <v>1585.999988474579</v>
       </c>
       <c r="AB21" t="n">
-        <v>1822.000504139101</v>
+        <v>2170.03515361222</v>
       </c>
       <c r="AC21" t="n">
-        <v>1648.111333217833</v>
+        <v>1962.930044214936</v>
       </c>
       <c r="AD21" t="n">
-        <v>1331634.086090788</v>
+        <v>1585999.988474579</v>
       </c>
       <c r="AE21" t="n">
-        <v>1822000.504139101</v>
+        <v>2170035.15361222</v>
       </c>
       <c r="AF21" t="n">
         <v>3.113116980057534e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1648111.333217833</v>
+        <v>1962930.044214936</v>
       </c>
     </row>
     <row r="22">
@@ -8972,28 +8972,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1325.822074168814</v>
+        <v>1580.187976552605</v>
       </c>
       <c r="AB22" t="n">
-        <v>1814.048253019586</v>
+        <v>2162.082902492704</v>
       </c>
       <c r="AC22" t="n">
-        <v>1640.91803378411</v>
+        <v>1955.736744781212</v>
       </c>
       <c r="AD22" t="n">
-        <v>1325822.074168813</v>
+        <v>1580187.976552605</v>
       </c>
       <c r="AE22" t="n">
-        <v>1814048.253019586</v>
+        <v>2162082.902492704</v>
       </c>
       <c r="AF22" t="n">
         <v>3.118541237547725e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.32407407407408</v>
       </c>
       <c r="AH22" t="n">
-        <v>1640918.03378411</v>
+        <v>1955736.744781212</v>
       </c>
     </row>
     <row r="23">
@@ -9078,28 +9078,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1322.930221793049</v>
+        <v>1577.29612417684</v>
       </c>
       <c r="AB23" t="n">
-        <v>1810.091493019541</v>
+        <v>2158.12614249266</v>
       </c>
       <c r="AC23" t="n">
-        <v>1637.338901405122</v>
+        <v>1952.157612402224</v>
       </c>
       <c r="AD23" t="n">
-        <v>1322930.221793049</v>
+        <v>1577296.12417684</v>
       </c>
       <c r="AE23" t="n">
-        <v>1810091.493019541</v>
+        <v>2158126.14249266</v>
       </c>
       <c r="AF23" t="n">
         <v>3.116371534551649e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.3587962962963</v>
       </c>
       <c r="AH23" t="n">
-        <v>1637338.901405122</v>
+        <v>1952157.612402224</v>
       </c>
     </row>
     <row r="24">
@@ -9184,28 +9184,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1316.368477536136</v>
+        <v>1570.734379919928</v>
       </c>
       <c r="AB24" t="n">
-        <v>1801.113425043508</v>
+        <v>2149.148074516627</v>
       </c>
       <c r="AC24" t="n">
-        <v>1629.217687635924</v>
+        <v>1944.036398633026</v>
       </c>
       <c r="AD24" t="n">
-        <v>1316368.477536136</v>
+        <v>1570734.379919928</v>
       </c>
       <c r="AE24" t="n">
-        <v>1801113.425043508</v>
+        <v>2149148.074516627</v>
       </c>
       <c r="AF24" t="n">
         <v>3.122338217790858e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.2662037037037</v>
       </c>
       <c r="AH24" t="n">
-        <v>1629217.687635924</v>
+        <v>1944036.398633027</v>
       </c>
     </row>
     <row r="25">
@@ -9290,28 +9290,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1310.907311997705</v>
+        <v>1565.273214381496</v>
       </c>
       <c r="AB25" t="n">
-        <v>1793.641217424206</v>
+        <v>2141.675866897325</v>
       </c>
       <c r="AC25" t="n">
-        <v>1622.4586170245</v>
+        <v>1937.277328021602</v>
       </c>
       <c r="AD25" t="n">
-        <v>1310907.311997705</v>
+        <v>1565273.214381496</v>
       </c>
       <c r="AE25" t="n">
-        <v>1793641.217424206</v>
+        <v>2141675.866897325</v>
       </c>
       <c r="AF25" t="n">
         <v>3.126813230220266e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>51</v>
+        <v>50.19675925925926</v>
       </c>
       <c r="AH25" t="n">
-        <v>1622458.617024499</v>
+        <v>1937277.328021602</v>
       </c>
     </row>
     <row r="26">
@@ -9396,28 +9396,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1304.363029989255</v>
+        <v>1549.008741940259</v>
       </c>
       <c r="AB26" t="n">
-        <v>1784.687042066899</v>
+        <v>2119.422098165342</v>
       </c>
       <c r="AC26" t="n">
-        <v>1614.359015596029</v>
+        <v>1917.147427744038</v>
       </c>
       <c r="AD26" t="n">
-        <v>1304363.029989254</v>
+        <v>1549008.741940259</v>
       </c>
       <c r="AE26" t="n">
-        <v>1784687.042066899</v>
+        <v>2119422.098165342</v>
       </c>
       <c r="AF26" t="n">
         <v>3.133051126333984e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>51</v>
+        <v>50.0925925925926</v>
       </c>
       <c r="AH26" t="n">
-        <v>1614359.015596029</v>
+        <v>1917147.427744038</v>
       </c>
     </row>
     <row r="27">
@@ -9502,28 +9502,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1300.987696501825</v>
+        <v>1545.63340845283</v>
       </c>
       <c r="AB27" t="n">
-        <v>1780.068761880194</v>
+        <v>2114.803817978637</v>
       </c>
       <c r="AC27" t="n">
-        <v>1610.181497588547</v>
+        <v>1912.969909736556</v>
       </c>
       <c r="AD27" t="n">
-        <v>1300987.696501825</v>
+        <v>1545633.40845283</v>
       </c>
       <c r="AE27" t="n">
-        <v>1780068.761880194</v>
+        <v>2114803.817978637</v>
       </c>
       <c r="AF27" t="n">
         <v>3.131830668398691e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>51</v>
+        <v>50.11574074074074</v>
       </c>
       <c r="AH27" t="n">
-        <v>1610181.497588546</v>
+        <v>1912969.909736556</v>
       </c>
     </row>
     <row r="28">
@@ -9608,28 +9608,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1298.503609104284</v>
+        <v>1543.149321055288</v>
       </c>
       <c r="AB28" t="n">
-        <v>1776.669923912676</v>
+        <v>2111.40498001112</v>
       </c>
       <c r="AC28" t="n">
-        <v>1607.10703994635</v>
+        <v>1909.895452094359</v>
       </c>
       <c r="AD28" t="n">
-        <v>1298503.609104284</v>
+        <v>1543149.321055288</v>
       </c>
       <c r="AE28" t="n">
-        <v>1776669.923912677</v>
+        <v>2111404.98001112</v>
       </c>
       <c r="AF28" t="n">
         <v>3.136305680828099e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>51</v>
+        <v>50.0462962962963</v>
       </c>
       <c r="AH28" t="n">
-        <v>1607107.03994635</v>
+        <v>1909895.452094359</v>
       </c>
     </row>
     <row r="29">
@@ -9714,28 +9714,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1301.5826999563</v>
+        <v>1546.228411907304</v>
       </c>
       <c r="AB29" t="n">
-        <v>1780.882871856307</v>
+        <v>2115.61792795475</v>
       </c>
       <c r="AC29" t="n">
-        <v>1610.917910051149</v>
+        <v>1913.706322199158</v>
       </c>
       <c r="AD29" t="n">
-        <v>1301582.6999563</v>
+        <v>1546228.411907305</v>
       </c>
       <c r="AE29" t="n">
-        <v>1780882.871856307</v>
+        <v>2115617.92795475</v>
       </c>
       <c r="AF29" t="n">
         <v>3.136576893702608e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH29" t="n">
-        <v>1610917.910051149</v>
+        <v>1913706.322199158</v>
       </c>
     </row>
   </sheetData>
@@ -10011,28 +10011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2637.199476557291</v>
+        <v>3053.327439366674</v>
       </c>
       <c r="AB2" t="n">
-        <v>3608.332668855577</v>
+        <v>4177.697305841466</v>
       </c>
       <c r="AC2" t="n">
-        <v>3263.958463266573</v>
+        <v>3778.983738406793</v>
       </c>
       <c r="AD2" t="n">
-        <v>2637199.476557291</v>
+        <v>3053327.439366674</v>
       </c>
       <c r="AE2" t="n">
-        <v>3608332.668855577</v>
+        <v>4177697.305841466</v>
       </c>
       <c r="AF2" t="n">
         <v>2.043022290791796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3263958.463266573</v>
+        <v>3778983.738406793</v>
       </c>
     </row>
     <row r="3">
@@ -10117,28 +10117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1763.99298154801</v>
+        <v>2073.669069124985</v>
       </c>
       <c r="AB3" t="n">
-        <v>2413.573019231941</v>
+        <v>2837.285504199529</v>
       </c>
       <c r="AC3" t="n">
-        <v>2183.224997747452</v>
+        <v>2566.498957833941</v>
       </c>
       <c r="AD3" t="n">
-        <v>1763992.98154801</v>
+        <v>2073669.069124985</v>
       </c>
       <c r="AE3" t="n">
-        <v>2413573.019231941</v>
+        <v>2837285.504199529</v>
       </c>
       <c r="AF3" t="n">
         <v>2.713247556788349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.29861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2183224.997747452</v>
+        <v>2566498.957833941</v>
       </c>
     </row>
     <row r="4">
@@ -10223,28 +10223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1550.133643998753</v>
+        <v>1840.481787664435</v>
       </c>
       <c r="AB4" t="n">
-        <v>2120.96123878895</v>
+        <v>2518.228378208402</v>
       </c>
       <c r="AC4" t="n">
-        <v>1918.539674946727</v>
+        <v>2277.892196147918</v>
       </c>
       <c r="AD4" t="n">
-        <v>1550133.643998753</v>
+        <v>1840481.787664435</v>
       </c>
       <c r="AE4" t="n">
-        <v>2120961.23878895</v>
+        <v>2518228.378208402</v>
       </c>
       <c r="AF4" t="n">
         <v>2.969348687873151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.83564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1918539.674946727</v>
+        <v>2277892.196147918</v>
       </c>
     </row>
     <row r="5">
@@ -10329,28 +10329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1462.353944908847</v>
+        <v>1733.307835885389</v>
       </c>
       <c r="AB5" t="n">
-        <v>2000.857181927129</v>
+        <v>2371.588249203257</v>
       </c>
       <c r="AC5" t="n">
-        <v>1809.898180704695</v>
+        <v>2145.247195244312</v>
       </c>
       <c r="AD5" t="n">
-        <v>1462353.944908847</v>
+        <v>1733307.835885389</v>
       </c>
       <c r="AE5" t="n">
-        <v>2000857.181927129</v>
+        <v>2371588.249203257</v>
       </c>
       <c r="AF5" t="n">
         <v>3.100218443155188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.39351851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>1809898.180704695</v>
+        <v>2145247.195244311</v>
       </c>
     </row>
     <row r="6">
@@ -10435,28 +10435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1401.223680065198</v>
+        <v>1672.210725430664</v>
       </c>
       <c r="AB6" t="n">
-        <v>1917.216056691099</v>
+        <v>2287.992487264821</v>
       </c>
       <c r="AC6" t="n">
-        <v>1734.239647070136</v>
+        <v>2069.629695497891</v>
       </c>
       <c r="AD6" t="n">
-        <v>1401223.680065198</v>
+        <v>1672210.725430664</v>
       </c>
       <c r="AE6" t="n">
-        <v>1917216.056691099</v>
+        <v>2287992.487264821</v>
       </c>
       <c r="AF6" t="n">
         <v>3.182123324011973e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.96990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1734239.647070136</v>
+        <v>2069629.695497891</v>
       </c>
     </row>
     <row r="7">
@@ -10541,28 +10541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1372.140936431137</v>
+        <v>1633.414278257572</v>
       </c>
       <c r="AB7" t="n">
-        <v>1877.423763810881</v>
+        <v>2234.909476664145</v>
       </c>
       <c r="AC7" t="n">
-        <v>1698.245074773572</v>
+        <v>2021.612852926469</v>
       </c>
       <c r="AD7" t="n">
-        <v>1372140.936431137</v>
+        <v>1633414.278257572</v>
       </c>
       <c r="AE7" t="n">
-        <v>1877423.763810881</v>
+        <v>2234909.476664145</v>
       </c>
       <c r="AF7" t="n">
         <v>3.239100632434083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.02083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1698245.074773572</v>
+        <v>2021612.852926469</v>
       </c>
     </row>
     <row r="8">
@@ -10647,28 +10647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1339.432416836628</v>
+        <v>1600.671593244281</v>
       </c>
       <c r="AB8" t="n">
-        <v>1832.670524303631</v>
+        <v>2190.109490523647</v>
       </c>
       <c r="AC8" t="n">
-        <v>1657.763021633328</v>
+        <v>1981.088514586045</v>
       </c>
       <c r="AD8" t="n">
-        <v>1339432.416836628</v>
+        <v>1600671.593244281</v>
       </c>
       <c r="AE8" t="n">
-        <v>1832670.524303631</v>
+        <v>2190109.490523648</v>
       </c>
       <c r="AF8" t="n">
         <v>3.282872262602112e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.31481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>1657763.021633327</v>
+        <v>1981088.514586045</v>
       </c>
     </row>
     <row r="9">
@@ -10753,28 +10753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1312.512268845602</v>
+        <v>1573.81876506096</v>
       </c>
       <c r="AB9" t="n">
-        <v>1795.837190189199</v>
+        <v>2153.368266340056</v>
       </c>
       <c r="AC9" t="n">
-        <v>1624.445009230868</v>
+        <v>1947.853821271904</v>
       </c>
       <c r="AD9" t="n">
-        <v>1312512.268845602</v>
+        <v>1573818.76506096</v>
       </c>
       <c r="AE9" t="n">
-        <v>1795837.190189199</v>
+        <v>2153368.266340056</v>
       </c>
       <c r="AF9" t="n">
         <v>3.314031728145454e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.81712962962964</v>
       </c>
       <c r="AH9" t="n">
-        <v>1624445.009230867</v>
+        <v>1947853.821271904</v>
       </c>
     </row>
     <row r="10">
@@ -10859,28 +10859,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1298.807204352819</v>
+        <v>1550.399997029145</v>
       </c>
       <c r="AB10" t="n">
-        <v>1777.085316325399</v>
+        <v>2121.325674755798</v>
       </c>
       <c r="AC10" t="n">
-        <v>1607.482787890209</v>
+        <v>1918.869329656388</v>
       </c>
       <c r="AD10" t="n">
-        <v>1298807.204352819</v>
+        <v>1550399.997029145</v>
       </c>
       <c r="AE10" t="n">
-        <v>1777085.316325399</v>
+        <v>2121325.674755798</v>
       </c>
       <c r="AF10" t="n">
         <v>3.337623894913984e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.45833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1607482.787890209</v>
+        <v>1918869.329656388</v>
       </c>
     </row>
     <row r="11">
@@ -10965,28 +10965,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1287.757401536806</v>
+        <v>1539.350194213132</v>
       </c>
       <c r="AB11" t="n">
-        <v>1761.966488629635</v>
+        <v>2106.206847060034</v>
       </c>
       <c r="AC11" t="n">
-        <v>1593.80687989032</v>
+        <v>1905.193421656499</v>
       </c>
       <c r="AD11" t="n">
-        <v>1287757.401536806</v>
+        <v>1539350.194213132</v>
       </c>
       <c r="AE11" t="n">
-        <v>1761966.488629635</v>
+        <v>2106206.847060034</v>
       </c>
       <c r="AF11" t="n">
         <v>3.352610114056259e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.22685185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1593806.87989032</v>
+        <v>1905193.421656499</v>
       </c>
     </row>
     <row r="12">
@@ -11071,28 +11071,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1264.846513076267</v>
+        <v>1526.118843872843</v>
       </c>
       <c r="AB12" t="n">
-        <v>1730.618800280862</v>
+        <v>2088.103129798472</v>
       </c>
       <c r="AC12" t="n">
-        <v>1565.450970920798</v>
+        <v>1888.817497761654</v>
       </c>
       <c r="AD12" t="n">
-        <v>1264846.513076267</v>
+        <v>1526118.843872843</v>
       </c>
       <c r="AE12" t="n">
-        <v>1730618.800280862</v>
+        <v>2088103.129798472</v>
       </c>
       <c r="AF12" t="n">
         <v>3.373383091085153e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.91435185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1565450.970920797</v>
+        <v>1888817.497761654</v>
       </c>
     </row>
     <row r="13">
@@ -11177,28 +11177,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1255.87315585989</v>
+        <v>1507.53326834392</v>
       </c>
       <c r="AB13" t="n">
-        <v>1718.341057060835</v>
+        <v>2062.673525422075</v>
       </c>
       <c r="AC13" t="n">
-        <v>1554.344998281769</v>
+        <v>1865.814859136267</v>
       </c>
       <c r="AD13" t="n">
-        <v>1255873.15585989</v>
+        <v>1507533.26834392</v>
       </c>
       <c r="AE13" t="n">
-        <v>1718341.057060835</v>
+        <v>2062673.525422075</v>
       </c>
       <c r="AF13" t="n">
         <v>3.382285795526108e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.77546296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>1554344.998281769</v>
+        <v>1865814.859136267</v>
       </c>
     </row>
     <row r="14">
@@ -11283,28 +11283,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1245.04741927146</v>
+        <v>1496.70753175549</v>
       </c>
       <c r="AB14" t="n">
-        <v>1703.528806662754</v>
+        <v>2047.861275023994</v>
       </c>
       <c r="AC14" t="n">
-        <v>1540.946408272556</v>
+        <v>1852.416269127055</v>
       </c>
       <c r="AD14" t="n">
-        <v>1245047.41927146</v>
+        <v>1496707.53175549</v>
       </c>
       <c r="AE14" t="n">
-        <v>1703528.806662754</v>
+        <v>2047861.275023994</v>
       </c>
       <c r="AF14" t="n">
         <v>3.397717149890429e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.54398148148149</v>
       </c>
       <c r="AH14" t="n">
-        <v>1540946.408272556</v>
+        <v>1852416.269127055</v>
       </c>
     </row>
     <row r="15">
@@ -11389,28 +11389,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1235.842259144688</v>
+        <v>1487.400886402233</v>
       </c>
       <c r="AB15" t="n">
-        <v>1690.933900474301</v>
+        <v>2035.127512271452</v>
       </c>
       <c r="AC15" t="n">
-        <v>1529.553542253668</v>
+        <v>1840.897798819667</v>
       </c>
       <c r="AD15" t="n">
-        <v>1235842.259144688</v>
+        <v>1487400.886402233</v>
       </c>
       <c r="AE15" t="n">
-        <v>1690933.900474301</v>
+        <v>2035127.512271452</v>
       </c>
       <c r="AF15" t="n">
         <v>3.406619854331385e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1529553.542253667</v>
+        <v>1840897.798819667</v>
       </c>
     </row>
     <row r="16">
@@ -11495,28 +11495,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1226.445495838134</v>
+        <v>1478.004123095679</v>
       </c>
       <c r="AB16" t="n">
-        <v>1678.076834362335</v>
+        <v>2022.270446159486</v>
       </c>
       <c r="AC16" t="n">
-        <v>1517.923536486422</v>
+        <v>1829.267793052421</v>
       </c>
       <c r="AD16" t="n">
-        <v>1226445.495838134</v>
+        <v>1478004.123095679</v>
       </c>
       <c r="AE16" t="n">
-        <v>1678076.834362335</v>
+        <v>2022270.446159486</v>
       </c>
       <c r="AF16" t="n">
         <v>3.416857964438483e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.25462962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1517923.536486422</v>
+        <v>1829267.793052421</v>
       </c>
     </row>
     <row r="17">
@@ -11601,28 +11601,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1216.552538639152</v>
+        <v>1468.111165896697</v>
       </c>
       <c r="AB17" t="n">
-        <v>1664.540853876218</v>
+        <v>2008.734465673369</v>
       </c>
       <c r="AC17" t="n">
-        <v>1505.679410980032</v>
+        <v>1817.023667546031</v>
       </c>
       <c r="AD17" t="n">
-        <v>1216552.538639152</v>
+        <v>1468111.165896697</v>
       </c>
       <c r="AE17" t="n">
-        <v>1664540.853876218</v>
+        <v>2008734.465673369</v>
       </c>
       <c r="AF17" t="n">
         <v>3.421902830288357e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.18518518518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>1505679.410980032</v>
+        <v>1817023.667546032</v>
       </c>
     </row>
     <row r="18">
@@ -11707,28 +11707,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1209.403598234312</v>
+        <v>1451.35000717931</v>
       </c>
       <c r="AB18" t="n">
-        <v>1654.759358225324</v>
+        <v>1985.801108866106</v>
       </c>
       <c r="AC18" t="n">
-        <v>1496.831447545644</v>
+        <v>1796.279038125285</v>
       </c>
       <c r="AD18" t="n">
-        <v>1209403.598234312</v>
+        <v>1451350.00717931</v>
       </c>
       <c r="AE18" t="n">
-        <v>1654759.358225324</v>
+        <v>1985801.108866106</v>
       </c>
       <c r="AF18" t="n">
         <v>3.429766885877868e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.06944444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>1496831.447545644</v>
+        <v>1796279.038125285</v>
       </c>
     </row>
     <row r="19">
@@ -11813,28 +11813,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1193.406748163373</v>
+        <v>1445.032695228623</v>
       </c>
       <c r="AB19" t="n">
-        <v>1632.871762227049</v>
+        <v>1977.157483955041</v>
       </c>
       <c r="AC19" t="n">
-        <v>1477.032772990011</v>
+        <v>1788.460348644329</v>
       </c>
       <c r="AD19" t="n">
-        <v>1193406.748163373</v>
+        <v>1445032.695228623</v>
       </c>
       <c r="AE19" t="n">
-        <v>1632871.762227049</v>
+        <v>1977157.483955042</v>
       </c>
       <c r="AF19" t="n">
         <v>3.435405265357139e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH19" t="n">
-        <v>1477032.772990011</v>
+        <v>1788460.348644329</v>
       </c>
     </row>
     <row r="20">
@@ -11919,28 +11919,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1203.267862233694</v>
+        <v>1445.214271178692</v>
       </c>
       <c r="AB20" t="n">
-        <v>1646.364173539711</v>
+        <v>1977.405924180493</v>
       </c>
       <c r="AC20" t="n">
-        <v>1489.23748750371</v>
+        <v>1788.685078083351</v>
       </c>
       <c r="AD20" t="n">
-        <v>1203267.862233694</v>
+        <v>1445214.271178692</v>
       </c>
       <c r="AE20" t="n">
-        <v>1646364.173539711</v>
+        <v>1977405.924180493</v>
       </c>
       <c r="AF20" t="n">
         <v>3.433624724468948e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.01157407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>1489237.48750371</v>
+        <v>1788685.078083351</v>
       </c>
     </row>
     <row r="21">
@@ -12025,28 +12025,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1206.32941647335</v>
+        <v>1448.275825418348</v>
       </c>
       <c r="AB21" t="n">
-        <v>1650.553127116649</v>
+        <v>1981.594877757431</v>
       </c>
       <c r="AC21" t="n">
-        <v>1493.026653230499</v>
+        <v>1792.47424381014</v>
       </c>
       <c r="AD21" t="n">
-        <v>1206329.41647335</v>
+        <v>1448275.825418348</v>
       </c>
       <c r="AE21" t="n">
-        <v>1650553.127116649</v>
+        <v>1981594.877757431</v>
       </c>
       <c r="AF21" t="n">
         <v>3.433476346061599e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.02314814814815</v>
       </c>
       <c r="AH21" t="n">
-        <v>1493026.653230499</v>
+        <v>1792474.24381014</v>
       </c>
     </row>
   </sheetData>
@@ -12322,28 +12322,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1374.922313731401</v>
+        <v>1683.550714886034</v>
       </c>
       <c r="AB2" t="n">
-        <v>1881.229366938808</v>
+        <v>2303.508361122686</v>
       </c>
       <c r="AC2" t="n">
-        <v>1701.687476480167</v>
+        <v>2083.664756131427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1374922.313731401</v>
+        <v>1683550.714886034</v>
       </c>
       <c r="AE2" t="n">
-        <v>1881229.366938808</v>
+        <v>2303508.361122686</v>
       </c>
       <c r="AF2" t="n">
         <v>3.818378074406309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1701687.476480167</v>
+        <v>2083664.756131426</v>
       </c>
     </row>
     <row r="3">
@@ -12428,28 +12428,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1122.052341838363</v>
+        <v>1383.971665131925</v>
       </c>
       <c r="AB3" t="n">
-        <v>1535.241515558933</v>
+        <v>1893.611088754212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1388.720220038988</v>
+        <v>1712.887504143365</v>
       </c>
       <c r="AD3" t="n">
-        <v>1122052.341838363</v>
+        <v>1383971.665131925</v>
       </c>
       <c r="AE3" t="n">
-        <v>1535241.515558933</v>
+        <v>1893611.088754212</v>
       </c>
       <c r="AF3" t="n">
         <v>4.391435086495166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1388720.220038988</v>
+        <v>1712887.504143365</v>
       </c>
     </row>
     <row r="4">
@@ -12534,28 +12534,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.695195246017</v>
+        <v>1299.157551573366</v>
       </c>
       <c r="AB4" t="n">
-        <v>1432.13454306861</v>
+        <v>1777.564676848781</v>
       </c>
       <c r="AC4" t="n">
-        <v>1295.453632291596</v>
+        <v>1607.916398918026</v>
       </c>
       <c r="AD4" t="n">
-        <v>1046695.195246016</v>
+        <v>1299157.551573366</v>
       </c>
       <c r="AE4" t="n">
-        <v>1432134.54306861</v>
+        <v>1777564.676848781</v>
       </c>
       <c r="AF4" t="n">
         <v>4.591083427533712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.21064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1295453.632291596</v>
+        <v>1607916.398918026</v>
       </c>
     </row>
     <row r="5">
@@ -12640,28 +12640,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1003.215856275345</v>
+        <v>1246.356896281749</v>
       </c>
       <c r="AB5" t="n">
-        <v>1372.644193315879</v>
+        <v>1705.320490878279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1241.640958024036</v>
+        <v>1542.567096661197</v>
       </c>
       <c r="AD5" t="n">
-        <v>1003215.856275345</v>
+        <v>1246356.896281749</v>
       </c>
       <c r="AE5" t="n">
-        <v>1372644.193315879</v>
+        <v>1705320.490878279</v>
       </c>
       <c r="AF5" t="n">
         <v>4.697742032964056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.0300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1241640.958024036</v>
+        <v>1542567.096661197</v>
       </c>
     </row>
     <row r="6">
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>969.2121803039012</v>
+        <v>1212.319054891525</v>
       </c>
       <c r="AB6" t="n">
-        <v>1326.118863715441</v>
+        <v>1658.748414644593</v>
       </c>
       <c r="AC6" t="n">
-        <v>1199.555940581953</v>
+        <v>1500.439794018934</v>
       </c>
       <c r="AD6" t="n">
-        <v>969212.1803039012</v>
+        <v>1212319.054891525</v>
       </c>
       <c r="AE6" t="n">
-        <v>1326118.863715441</v>
+        <v>1658748.414644593</v>
       </c>
       <c r="AF6" t="n">
         <v>4.756559594016906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.39351851851851</v>
       </c>
       <c r="AH6" t="n">
-        <v>1199555.940581953</v>
+        <v>1500439.794018934</v>
       </c>
     </row>
     <row r="7">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>966.5501325342278</v>
+        <v>1209.657007121851</v>
       </c>
       <c r="AB7" t="n">
-        <v>1322.476532515715</v>
+        <v>1655.106083444867</v>
       </c>
       <c r="AC7" t="n">
-        <v>1196.261228359885</v>
+        <v>1497.145081796866</v>
       </c>
       <c r="AD7" t="n">
-        <v>966550.1325342278</v>
+        <v>1209657.007121851</v>
       </c>
       <c r="AE7" t="n">
-        <v>1322476.532515715</v>
+        <v>1655106.083444867</v>
       </c>
       <c r="AF7" t="n">
         <v>4.768364527045119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.2662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1196261.228359885</v>
+        <v>1497145.081796866</v>
       </c>
     </row>
   </sheetData>
@@ -13149,28 +13149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1747.904800318684</v>
+        <v>2079.69326958896</v>
       </c>
       <c r="AB2" t="n">
-        <v>2391.560459913514</v>
+        <v>2845.528081043308</v>
       </c>
       <c r="AC2" t="n">
-        <v>2163.313286195554</v>
+        <v>2573.954874712279</v>
       </c>
       <c r="AD2" t="n">
-        <v>1747904.800318684</v>
+        <v>2079693.26958896</v>
       </c>
       <c r="AE2" t="n">
-        <v>2391560.459913514</v>
+        <v>2845528.081043308</v>
       </c>
       <c r="AF2" t="n">
         <v>3.002172799771851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.14351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>2163313.286195554</v>
+        <v>2573954.874712279</v>
       </c>
     </row>
     <row r="3">
@@ -13255,28 +13255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1335.29285520677</v>
+        <v>1610.185903706172</v>
       </c>
       <c r="AB3" t="n">
-        <v>1827.006593457088</v>
+        <v>2203.12738983936</v>
       </c>
       <c r="AC3" t="n">
-        <v>1652.639648397402</v>
+        <v>1992.864003861802</v>
       </c>
       <c r="AD3" t="n">
-        <v>1335292.85520677</v>
+        <v>1610185.903706172</v>
       </c>
       <c r="AE3" t="n">
-        <v>1827006.593457088</v>
+        <v>2203127.38983936</v>
       </c>
       <c r="AF3" t="n">
         <v>3.622551299945746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1652639.648397402</v>
+        <v>1992864.003861802</v>
       </c>
     </row>
     <row r="4">
@@ -13361,28 +13361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1227.151905678955</v>
+        <v>1483.113979340181</v>
       </c>
       <c r="AB4" t="n">
-        <v>1679.043375471149</v>
+        <v>2029.26197690416</v>
       </c>
       <c r="AC4" t="n">
-        <v>1518.79783226836</v>
+        <v>1835.592061915499</v>
       </c>
       <c r="AD4" t="n">
-        <v>1227151.905678955</v>
+        <v>1483113.979340181</v>
       </c>
       <c r="AE4" t="n">
-        <v>1679043.375471149</v>
+        <v>2029261.97690416</v>
       </c>
       <c r="AF4" t="n">
         <v>3.839567196219356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1518797.83226836</v>
+        <v>1835592.061915499</v>
       </c>
     </row>
     <row r="5">
@@ -13467,28 +13467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1165.462770524309</v>
+        <v>1421.356513347973</v>
       </c>
       <c r="AB5" t="n">
-        <v>1594.637579219995</v>
+        <v>1944.762687386511</v>
       </c>
       <c r="AC5" t="n">
-        <v>1442.447606747137</v>
+        <v>1759.157265993916</v>
       </c>
       <c r="AD5" t="n">
-        <v>1165462.770524309</v>
+        <v>1421356.513347973</v>
       </c>
       <c r="AE5" t="n">
-        <v>1594637.579219995</v>
+        <v>1944762.687386511</v>
       </c>
       <c r="AF5" t="n">
         <v>3.955787279512991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.47685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1442447.606747137</v>
+        <v>1759157.265993916</v>
       </c>
     </row>
     <row r="6">
@@ -13573,28 +13573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1128.632991522116</v>
+        <v>1384.594054153484</v>
       </c>
       <c r="AB6" t="n">
-        <v>1544.245450774018</v>
+        <v>1894.462668871376</v>
       </c>
       <c r="AC6" t="n">
-        <v>1396.864832314248</v>
+        <v>1713.657810649346</v>
       </c>
       <c r="AD6" t="n">
-        <v>1128632.991522116</v>
+        <v>1384594.054153484</v>
       </c>
       <c r="AE6" t="n">
-        <v>1544245.450774018</v>
+        <v>1894462.668871376</v>
       </c>
       <c r="AF6" t="n">
         <v>4.025196495924468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.57407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1396864.832314248</v>
+        <v>1713657.810649346</v>
       </c>
     </row>
     <row r="7">
@@ -13679,28 +13679,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1098.424775501576</v>
+        <v>1354.351672714163</v>
       </c>
       <c r="AB7" t="n">
-        <v>1502.913236922281</v>
+        <v>1853.083708386391</v>
       </c>
       <c r="AC7" t="n">
-        <v>1359.477306942394</v>
+        <v>1676.228000077313</v>
       </c>
       <c r="AD7" t="n">
-        <v>1098424.775501576</v>
+        <v>1354351.672714164</v>
       </c>
       <c r="AE7" t="n">
-        <v>1502913.236922281</v>
+        <v>1853083.708386391</v>
       </c>
       <c r="AF7" t="n">
         <v>4.070393194983103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.99537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1359477.306942394</v>
+        <v>1676228.000077313</v>
       </c>
     </row>
     <row r="8">
@@ -13785,28 +13785,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1077.757976151559</v>
+        <v>1324.169148846744</v>
       </c>
       <c r="AB8" t="n">
-        <v>1474.63601029675</v>
+        <v>1811.786647672012</v>
       </c>
       <c r="AC8" t="n">
-        <v>1333.898819138666</v>
+        <v>1638.872272876725</v>
       </c>
       <c r="AD8" t="n">
-        <v>1077757.976151559</v>
+        <v>1324169.148846744</v>
       </c>
       <c r="AE8" t="n">
-        <v>1474636.01029675</v>
+        <v>1811786.647672012</v>
       </c>
       <c r="AF8" t="n">
         <v>4.111106094531953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.49768518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1333898.819138666</v>
+        <v>1638872.272876725</v>
       </c>
     </row>
     <row r="9">
@@ -13891,28 +13891,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1063.314225289563</v>
+        <v>1309.725397984748</v>
       </c>
       <c r="AB9" t="n">
-        <v>1454.873433154051</v>
+        <v>1792.024070529313</v>
       </c>
       <c r="AC9" t="n">
-        <v>1316.022354621516</v>
+        <v>1620.995808359574</v>
       </c>
       <c r="AD9" t="n">
-        <v>1063314.225289563</v>
+        <v>1309725.397984748</v>
       </c>
       <c r="AE9" t="n">
-        <v>1454873.433154051</v>
+        <v>1792024.070529313</v>
       </c>
       <c r="AF9" t="n">
         <v>4.133883796041663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.21990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1316022.354621516</v>
+        <v>1620995.808359574</v>
       </c>
     </row>
     <row r="10">
@@ -13997,28 +13997,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1051.579190812051</v>
+        <v>1288.576124216319</v>
       </c>
       <c r="AB10" t="n">
-        <v>1438.817041268737</v>
+        <v>1763.086701119241</v>
       </c>
       <c r="AC10" t="n">
-        <v>1301.498362242448</v>
+        <v>1594.820180872146</v>
       </c>
       <c r="AD10" t="n">
-        <v>1051579.190812051</v>
+        <v>1288576.124216319</v>
       </c>
       <c r="AE10" t="n">
-        <v>1438817.041268737</v>
+        <v>1763086.701119241</v>
       </c>
       <c r="AF10" t="n">
         <v>4.146438434669062e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.05787037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1301498.362242448</v>
+        <v>1594820.180872146</v>
       </c>
     </row>
     <row r="11">
@@ -14103,28 +14103,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1053.516801282037</v>
+        <v>1290.513734686304</v>
       </c>
       <c r="AB11" t="n">
-        <v>1441.468165395112</v>
+        <v>1765.737825245616</v>
       </c>
       <c r="AC11" t="n">
-        <v>1303.896466803078</v>
+        <v>1597.218285432776</v>
       </c>
       <c r="AD11" t="n">
-        <v>1053516.801282037</v>
+        <v>1290513.734686304</v>
       </c>
       <c r="AE11" t="n">
-        <v>1441468.165395112</v>
+        <v>1765737.825245616</v>
       </c>
       <c r="AF11" t="n">
         <v>4.150742882198455e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.01157407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>1303896.466803078</v>
+        <v>1597218.285432776</v>
       </c>
     </row>
   </sheetData>
@@ -14400,28 +14400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1140.325339448616</v>
+        <v>1427.011382118767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1560.243437037041</v>
+        <v>1952.499928313913</v>
       </c>
       <c r="AC2" t="n">
-        <v>1411.335993221643</v>
+        <v>1766.156075506493</v>
       </c>
       <c r="AD2" t="n">
-        <v>1140325.339448616</v>
+        <v>1427011.382118766</v>
       </c>
       <c r="AE2" t="n">
-        <v>1560243.437037041</v>
+        <v>1952499.928313913</v>
       </c>
       <c r="AF2" t="n">
         <v>4.672789605275319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1411335.993221643</v>
+        <v>1766156.075506493</v>
       </c>
     </row>
     <row r="3">
@@ -14506,28 +14506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>965.5978035783057</v>
+        <v>1215.347204321309</v>
       </c>
       <c r="AB3" t="n">
-        <v>1321.173514024434</v>
+        <v>1662.891662286948</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.082568124614</v>
+        <v>1504.187615921388</v>
       </c>
       <c r="AD3" t="n">
-        <v>965597.8035783058</v>
+        <v>1215347.204321309</v>
       </c>
       <c r="AE3" t="n">
-        <v>1321173.514024434</v>
+        <v>1662891.662286948</v>
       </c>
       <c r="AF3" t="n">
         <v>5.208645827333137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195082.568124614</v>
+        <v>1504187.615921387</v>
       </c>
     </row>
     <row r="4">
@@ -14612,28 +14612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.6519989614281</v>
+        <v>1151.333068866869</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.680043057825</v>
+        <v>1575.304698053843</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.939351229201</v>
+        <v>1424.959828625614</v>
       </c>
       <c r="AD4" t="n">
-        <v>901651.9989614282</v>
+        <v>1151333.068866869</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233680.043057825</v>
+        <v>1575304.698053843</v>
       </c>
       <c r="AF4" t="n">
         <v>5.389399453365918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115939.351229201</v>
+        <v>1424959.828625614</v>
       </c>
     </row>
     <row r="5">
@@ -14718,28 +14718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>899.3289792687876</v>
+        <v>1139.827136820614</v>
       </c>
       <c r="AB5" t="n">
-        <v>1230.501585029959</v>
+        <v>1559.561774222259</v>
       </c>
       <c r="AC5" t="n">
-        <v>1113.06424077452</v>
+        <v>1410.719387349184</v>
       </c>
       <c r="AD5" t="n">
-        <v>899328.9792687877</v>
+        <v>1139827.136820614</v>
       </c>
       <c r="AE5" t="n">
-        <v>1230501.585029959</v>
+        <v>1559561.774222259</v>
       </c>
       <c r="AF5" t="n">
         <v>5.404818069759792e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.79861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1113064.24077452</v>
+        <v>1410719.387349183</v>
       </c>
     </row>
   </sheetData>
@@ -15015,28 +15015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2803.176722217548</v>
+        <v>3239.976017408411</v>
       </c>
       <c r="AB2" t="n">
-        <v>3835.430058767244</v>
+        <v>4433.078124672295</v>
       </c>
       <c r="AC2" t="n">
-        <v>3469.38199701825</v>
+        <v>4009.991370317629</v>
       </c>
       <c r="AD2" t="n">
-        <v>2803176.722217548</v>
+        <v>3239976.017408411</v>
       </c>
       <c r="AE2" t="n">
-        <v>3835430.058767244</v>
+        <v>4433078.124672296</v>
       </c>
       <c r="AF2" t="n">
         <v>1.929813932932395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.84027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>3469381.99701825</v>
+        <v>4009991.37031763</v>
       </c>
     </row>
     <row r="3">
@@ -15121,28 +15121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1839.146856244218</v>
+        <v>2159.405852660235</v>
       </c>
       <c r="AB3" t="n">
-        <v>2516.401866146245</v>
+        <v>2954.594353872398</v>
       </c>
       <c r="AC3" t="n">
-        <v>2276.240003833447</v>
+        <v>2672.612015538036</v>
       </c>
       <c r="AD3" t="n">
-        <v>1839146.856244219</v>
+        <v>2159405.852660235</v>
       </c>
       <c r="AE3" t="n">
-        <v>2516401.866146245</v>
+        <v>2954594.353872398</v>
       </c>
       <c r="AF3" t="n">
         <v>2.6025266829627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.39814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>2276240.003833447</v>
+        <v>2672612.015538036</v>
       </c>
     </row>
     <row r="4">
@@ -15227,28 +15227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1609.324356314534</v>
+        <v>1900.558051860556</v>
       </c>
       <c r="AB4" t="n">
-        <v>2201.948582689331</v>
+        <v>2600.427373259257</v>
       </c>
       <c r="AC4" t="n">
-        <v>1991.797700411707</v>
+        <v>2352.246234478134</v>
       </c>
       <c r="AD4" t="n">
-        <v>1609324.356314534</v>
+        <v>1900558.051860556</v>
       </c>
       <c r="AE4" t="n">
-        <v>2201948.582689331</v>
+        <v>2600427.373259257</v>
       </c>
       <c r="AF4" t="n">
         <v>2.864024579336942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.51851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>1991797.700411707</v>
+        <v>2352246.234478134</v>
       </c>
     </row>
     <row r="5">
@@ -15333,28 +15333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1504.688674612307</v>
+        <v>1786.179276040722</v>
       </c>
       <c r="AB5" t="n">
-        <v>2058.781426783863</v>
+        <v>2443.929286147102</v>
       </c>
       <c r="AC5" t="n">
-        <v>1862.294216929491</v>
+        <v>2210.684105153518</v>
       </c>
       <c r="AD5" t="n">
-        <v>1504688.674612307</v>
+        <v>1786179.276040721</v>
       </c>
       <c r="AE5" t="n">
-        <v>2058781.426783863</v>
+        <v>2443929.286147102</v>
       </c>
       <c r="AF5" t="n">
         <v>2.998827758475602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.87962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1862294.216929491</v>
+        <v>2210684.105153518</v>
       </c>
     </row>
     <row r="6">
@@ -15439,28 +15439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1450.966483360057</v>
+        <v>1722.680836281941</v>
       </c>
       <c r="AB6" t="n">
-        <v>1985.276354656728</v>
+        <v>2357.047919515685</v>
       </c>
       <c r="AC6" t="n">
-        <v>1795.804365721152</v>
+        <v>2132.09457421464</v>
       </c>
       <c r="AD6" t="n">
-        <v>1450966.483360057</v>
+        <v>1722680.836281941</v>
       </c>
       <c r="AE6" t="n">
-        <v>1985276.354656728</v>
+        <v>2357047.919515685</v>
       </c>
       <c r="AF6" t="n">
         <v>3.082229080907254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1795804.365721152</v>
+        <v>2132094.57421464</v>
       </c>
     </row>
     <row r="7">
@@ -15545,28 +15545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1410.939931734541</v>
+        <v>1672.979521376378</v>
       </c>
       <c r="AB7" t="n">
-        <v>1930.510260875865</v>
+        <v>2289.044387794632</v>
       </c>
       <c r="AC7" t="n">
-        <v>1746.26507106604</v>
+        <v>2070.581204117488</v>
       </c>
       <c r="AD7" t="n">
-        <v>1410939.931734541</v>
+        <v>1672979.521376378</v>
       </c>
       <c r="AE7" t="n">
-        <v>1930510.260875865</v>
+        <v>2289044.387794632</v>
       </c>
       <c r="AF7" t="n">
         <v>3.140146665929235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.36805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1746265.071066041</v>
+        <v>2070581.204117488</v>
       </c>
     </row>
     <row r="8">
@@ -15651,28 +15651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1377.256809943167</v>
+        <v>1639.363719392709</v>
       </c>
       <c r="AB8" t="n">
-        <v>1884.423527646451</v>
+        <v>2243.049764496059</v>
       </c>
       <c r="AC8" t="n">
-        <v>1704.576790972905</v>
+        <v>2028.976243112671</v>
       </c>
       <c r="AD8" t="n">
-        <v>1377256.809943167</v>
+        <v>1639363.719392709</v>
       </c>
       <c r="AE8" t="n">
-        <v>1884423.527646451</v>
+        <v>2243049.764496059</v>
       </c>
       <c r="AF8" t="n">
         <v>3.18416403054594e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.62731481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>1704576.790972905</v>
+        <v>2028976.243112671</v>
       </c>
     </row>
     <row r="9">
@@ -15757,28 +15757,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1359.600566437813</v>
+        <v>1611.965392799605</v>
       </c>
       <c r="AB9" t="n">
-        <v>1860.265476343937</v>
+        <v>2205.562165322513</v>
       </c>
       <c r="AC9" t="n">
-        <v>1682.724350180665</v>
+        <v>1995.066407790071</v>
       </c>
       <c r="AD9" t="n">
-        <v>1359600.566437813</v>
+        <v>1611965.392799605</v>
       </c>
       <c r="AE9" t="n">
-        <v>1860265.476343937</v>
+        <v>2205562.165322512</v>
       </c>
       <c r="AF9" t="n">
         <v>3.215584320420365e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.11805555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1682724.350180665</v>
+        <v>1995066.407790072</v>
       </c>
     </row>
     <row r="10">
@@ -15863,28 +15863,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1335.702655412612</v>
+        <v>1597.775399443374</v>
       </c>
       <c r="AB10" t="n">
-        <v>1827.567300177831</v>
+        <v>2186.146790394192</v>
       </c>
       <c r="AC10" t="n">
-        <v>1653.146842055674</v>
+        <v>1977.50400899526</v>
       </c>
       <c r="AD10" t="n">
-        <v>1335702.655412612</v>
+        <v>1597775.399443374</v>
       </c>
       <c r="AE10" t="n">
-        <v>1827567.300177831</v>
+        <v>2186146.790394192</v>
       </c>
       <c r="AF10" t="n">
         <v>3.238896148391712e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.74768518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>1653146.842055674</v>
+        <v>1977504.00899526</v>
       </c>
     </row>
     <row r="11">
@@ -15969,28 +15969,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1321.595236560619</v>
+        <v>1573.92589750363</v>
       </c>
       <c r="AB11" t="n">
-        <v>1808.26490732914</v>
+        <v>2153.514849674467</v>
       </c>
       <c r="AC11" t="n">
-        <v>1635.686642489383</v>
+        <v>1947.98641489861</v>
       </c>
       <c r="AD11" t="n">
-        <v>1321595.236560619</v>
+        <v>1573925.89750363</v>
       </c>
       <c r="AE11" t="n">
-        <v>1808264.90732914</v>
+        <v>2153514.849674467</v>
       </c>
       <c r="AF11" t="n">
         <v>3.26162880051284e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.37731481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>1635686.642489383</v>
+        <v>1947986.41489861</v>
       </c>
     </row>
     <row r="12">
@@ -16075,28 +16075,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1311.139856551736</v>
+        <v>1563.470517494747</v>
       </c>
       <c r="AB12" t="n">
-        <v>1793.959395142173</v>
+        <v>2139.209337487501</v>
       </c>
       <c r="AC12" t="n">
-        <v>1622.746428307629</v>
+        <v>1935.046200716856</v>
       </c>
       <c r="AD12" t="n">
-        <v>1311139.856551736</v>
+        <v>1563470.517494747</v>
       </c>
       <c r="AE12" t="n">
-        <v>1793959.395142173</v>
+        <v>2139209.337487501</v>
       </c>
       <c r="AF12" t="n">
         <v>3.276832166581109e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.14583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1622746.428307629</v>
+        <v>1935046.200716855</v>
       </c>
     </row>
     <row r="13">
@@ -16181,28 +16181,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1291.346961455381</v>
+        <v>1553.385540067362</v>
       </c>
       <c r="AB13" t="n">
-        <v>1766.877882870437</v>
+        <v>2125.410626453549</v>
       </c>
       <c r="AC13" t="n">
-        <v>1598.249537557965</v>
+        <v>1922.564419297372</v>
       </c>
       <c r="AD13" t="n">
-        <v>1291346.961455381</v>
+        <v>1553385.540067362</v>
       </c>
       <c r="AE13" t="n">
-        <v>1766877.882870437</v>
+        <v>2125410.62645355</v>
       </c>
       <c r="AF13" t="n">
         <v>3.29029800509872e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1598249.537557965</v>
+        <v>1922564.419297372</v>
       </c>
     </row>
     <row r="14">
@@ -16287,28 +16287,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1280.679274432958</v>
+        <v>1533.077255183673</v>
       </c>
       <c r="AB14" t="n">
-        <v>1752.281882861221</v>
+        <v>2097.62393513739</v>
       </c>
       <c r="AC14" t="n">
-        <v>1585.046559304014</v>
+        <v>1897.42965080156</v>
       </c>
       <c r="AD14" t="n">
-        <v>1280679.274432958</v>
+        <v>1533077.255183673</v>
       </c>
       <c r="AE14" t="n">
-        <v>1752281.882861221</v>
+        <v>2097623.93513739</v>
       </c>
       <c r="AF14" t="n">
         <v>3.303908637578885e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.71759259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>1585046.559304014</v>
+        <v>1897429.65080156</v>
       </c>
     </row>
     <row r="15">
@@ -16393,28 +16393,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1271.974816412976</v>
+        <v>1524.372797163691</v>
       </c>
       <c r="AB15" t="n">
-        <v>1740.372059384696</v>
+        <v>2085.714111660865</v>
       </c>
       <c r="AC15" t="n">
-        <v>1574.273392664547</v>
+        <v>1886.656484162093</v>
       </c>
       <c r="AD15" t="n">
-        <v>1271974.816412976</v>
+        <v>1524372.797163691</v>
       </c>
       <c r="AE15" t="n">
-        <v>1740372.059384696</v>
+        <v>2085714.111660865</v>
       </c>
       <c r="AF15" t="n">
         <v>3.313175451182402e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.5787037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>1574273.392664547</v>
+        <v>1886656.484162093</v>
       </c>
     </row>
     <row r="16">
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1262.942244441396</v>
+        <v>1515.238739965626</v>
       </c>
       <c r="AB16" t="n">
-        <v>1728.013295924229</v>
+        <v>2073.216491636309</v>
       </c>
       <c r="AC16" t="n">
-        <v>1563.094132243113</v>
+        <v>1875.35161945216</v>
       </c>
       <c r="AD16" t="n">
-        <v>1262942.244441396</v>
+        <v>1515238.739965626</v>
       </c>
       <c r="AE16" t="n">
-        <v>1728013.295924229</v>
+        <v>2073216.491636309</v>
       </c>
       <c r="AF16" t="n">
         <v>3.323600616486359e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.42824074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>1563094.132243113</v>
+        <v>1875351.61945216</v>
       </c>
     </row>
     <row r="17">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1255.604146024496</v>
+        <v>1507.900641548726</v>
       </c>
       <c r="AB17" t="n">
-        <v>1717.972985936172</v>
+        <v>2063.176181648252</v>
       </c>
       <c r="AC17" t="n">
-        <v>1554.012055348653</v>
+        <v>1866.2695425577</v>
       </c>
       <c r="AD17" t="n">
-        <v>1255604.146024496</v>
+        <v>1507900.641548726</v>
       </c>
       <c r="AE17" t="n">
-        <v>1717972.985936172</v>
+        <v>2063176.181648252</v>
       </c>
       <c r="AF17" t="n">
         <v>3.327654847437897e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.3587962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>1554012.055348653</v>
+        <v>1866269.5425577</v>
       </c>
     </row>
     <row r="18">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1247.216620022801</v>
+        <v>1499.513115547031</v>
       </c>
       <c r="AB18" t="n">
-        <v>1706.496802829121</v>
+        <v>2051.6999985412</v>
       </c>
       <c r="AC18" t="n">
-        <v>1543.631143050414</v>
+        <v>1855.888630259461</v>
       </c>
       <c r="AD18" t="n">
-        <v>1247216.620022801</v>
+        <v>1499513.11554703</v>
       </c>
       <c r="AE18" t="n">
-        <v>1706496.802829121</v>
+        <v>2051699.998541201</v>
       </c>
       <c r="AF18" t="n">
         <v>3.337500836891634e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.20833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1543631.143050414</v>
+        <v>1855888.630259461</v>
       </c>
     </row>
     <row r="19">
@@ -16817,28 +16817,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1239.192885510972</v>
+        <v>1481.848783173937</v>
       </c>
       <c r="AB19" t="n">
-        <v>1695.518375287853</v>
+        <v>2027.530879692989</v>
       </c>
       <c r="AC19" t="n">
-        <v>1533.700481225365</v>
+        <v>1834.026178192552</v>
       </c>
       <c r="AD19" t="n">
-        <v>1239192.885510972</v>
+        <v>1481848.783173937</v>
       </c>
       <c r="AE19" t="n">
-        <v>1695518.375287853</v>
+        <v>2027530.879692989</v>
       </c>
       <c r="AF19" t="n">
         <v>3.341989449730837e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.15046296296296</v>
       </c>
       <c r="AH19" t="n">
-        <v>1533700.481225365</v>
+        <v>1834026.178192552</v>
       </c>
     </row>
     <row r="20">
@@ -16923,28 +16923,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1231.700733563431</v>
+        <v>1474.356631226396</v>
       </c>
       <c r="AB20" t="n">
-        <v>1685.267282462812</v>
+        <v>2017.279786867948</v>
       </c>
       <c r="AC20" t="n">
-        <v>1524.427738312047</v>
+        <v>1824.753435279233</v>
       </c>
       <c r="AD20" t="n">
-        <v>1231700.733563431</v>
+        <v>1474356.631226396</v>
       </c>
       <c r="AE20" t="n">
-        <v>1685267.282462812</v>
+        <v>2017279.786867948</v>
       </c>
       <c r="AF20" t="n">
         <v>3.347781208233036e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.05787037037037</v>
       </c>
       <c r="AH20" t="n">
-        <v>1524427.738312047</v>
+        <v>1824753.435279233</v>
       </c>
     </row>
     <row r="21">
@@ -17029,28 +17029,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1227.1338318314</v>
+        <v>1469.789729494365</v>
       </c>
       <c r="AB21" t="n">
-        <v>1679.018646035562</v>
+        <v>2011.031150440698</v>
       </c>
       <c r="AC21" t="n">
-        <v>1518.775462975397</v>
+        <v>1819.101159942584</v>
       </c>
       <c r="AD21" t="n">
-        <v>1227133.8318314</v>
+        <v>1469789.729494365</v>
       </c>
       <c r="AE21" t="n">
-        <v>1679018.646035562</v>
+        <v>2011031.150440698</v>
       </c>
       <c r="AF21" t="n">
         <v>3.350821881446689e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.01157407407408</v>
       </c>
       <c r="AH21" t="n">
-        <v>1518775.462975397</v>
+        <v>1819101.159942584</v>
       </c>
     </row>
     <row r="22">
@@ -17135,28 +17135,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1228.054793373514</v>
+        <v>1470.710691036479</v>
       </c>
       <c r="AB22" t="n">
-        <v>1680.278746247438</v>
+        <v>2012.291250652574</v>
       </c>
       <c r="AC22" t="n">
-        <v>1519.915300991613</v>
+        <v>1820.2409979588</v>
       </c>
       <c r="AD22" t="n">
-        <v>1228054.793373514</v>
+        <v>1470710.691036479</v>
       </c>
       <c r="AE22" t="n">
-        <v>1680278.746247438</v>
+        <v>2012291.250652574</v>
       </c>
       <c r="AF22" t="n">
         <v>3.34966352974625e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>1519915.300991613</v>
+        <v>1820240.9979588</v>
       </c>
     </row>
     <row r="23">
@@ -17241,28 +17241,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1231.149268297306</v>
+        <v>1473.80516596027</v>
       </c>
       <c r="AB23" t="n">
-        <v>1684.512743356768</v>
+        <v>2016.525247761904</v>
       </c>
       <c r="AC23" t="n">
-        <v>1523.745211359281</v>
+        <v>1824.070908326468</v>
       </c>
       <c r="AD23" t="n">
-        <v>1231149.268297306</v>
+        <v>1473805.16596027</v>
       </c>
       <c r="AE23" t="n">
-        <v>1684512.743356768</v>
+        <v>2016525.247761904</v>
       </c>
       <c r="AF23" t="n">
         <v>3.349808323708805e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>1523745.211359282</v>
+        <v>1824070.908326468</v>
       </c>
     </row>
   </sheetData>
@@ -17538,28 +17538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1017.464345328481</v>
+        <v>1283.926212440427</v>
       </c>
       <c r="AB2" t="n">
-        <v>1392.139604637353</v>
+        <v>1756.724486687835</v>
       </c>
       <c r="AC2" t="n">
-        <v>1259.27575465097</v>
+        <v>1589.06516725665</v>
       </c>
       <c r="AD2" t="n">
-        <v>1017464.345328481</v>
+        <v>1283926.212440427</v>
       </c>
       <c r="AE2" t="n">
-        <v>1392139.604637353</v>
+        <v>1756724.486687835</v>
       </c>
       <c r="AF2" t="n">
         <v>5.304700157478881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.63194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1259275.75465097</v>
+        <v>1589065.16725665</v>
       </c>
     </row>
     <row r="3">
@@ -17644,28 +17644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>876.6470184102104</v>
+        <v>1124.695683377118</v>
       </c>
       <c r="AB3" t="n">
-        <v>1199.467125525763</v>
+        <v>1538.858252068256</v>
       </c>
       <c r="AC3" t="n">
-        <v>1084.991666528267</v>
+        <v>1391.991780291983</v>
       </c>
       <c r="AD3" t="n">
-        <v>876647.0184102104</v>
+        <v>1124695.683377118</v>
       </c>
       <c r="AE3" t="n">
-        <v>1199467.125525763</v>
+        <v>1538858.252068256</v>
       </c>
       <c r="AF3" t="n">
         <v>5.807190592202392e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.72453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1084991.666528267</v>
+        <v>1391991.780291983</v>
       </c>
     </row>
     <row r="4">
@@ -17750,28 +17750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>868.3155007305583</v>
+        <v>1107.141492945414</v>
       </c>
       <c r="AB4" t="n">
-        <v>1188.067575475844</v>
+        <v>1514.839834283374</v>
       </c>
       <c r="AC4" t="n">
-        <v>1074.680073535743</v>
+        <v>1370.265646590428</v>
       </c>
       <c r="AD4" t="n">
-        <v>868315.5007305583</v>
+        <v>1107141.492945414</v>
       </c>
       <c r="AE4" t="n">
-        <v>1188067.575475844</v>
+        <v>1514839.834283374</v>
       </c>
       <c r="AF4" t="n">
         <v>5.857803006856878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>1074680.073535743</v>
+        <v>1370265.646590428</v>
       </c>
     </row>
   </sheetData>
@@ -18047,28 +18047,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2156.895836344028</v>
+        <v>2530.709493258894</v>
       </c>
       <c r="AB2" t="n">
-        <v>2951.160038814458</v>
+        <v>3462.628375700208</v>
       </c>
       <c r="AC2" t="n">
-        <v>2669.505466689134</v>
+        <v>3132.159983352697</v>
       </c>
       <c r="AD2" t="n">
-        <v>2156895.836344028</v>
+        <v>2530709.493258894</v>
       </c>
       <c r="AE2" t="n">
-        <v>2951160.038814458</v>
+        <v>3462628.375700208</v>
       </c>
       <c r="AF2" t="n">
         <v>2.453030420945165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.12268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>2669505.466689134</v>
+        <v>3132159.983352697</v>
       </c>
     </row>
     <row r="3">
@@ -18153,28 +18153,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1547.110355162315</v>
+        <v>1844.216461808433</v>
       </c>
       <c r="AB3" t="n">
-        <v>2116.824641624845</v>
+        <v>2523.338324134415</v>
       </c>
       <c r="AC3" t="n">
-        <v>1914.797868810213</v>
+        <v>2282.514456006607</v>
       </c>
       <c r="AD3" t="n">
-        <v>1547110.355162315</v>
+        <v>1844216.461808433</v>
       </c>
       <c r="AE3" t="n">
-        <v>2116824.641624845</v>
+        <v>2523338.324134415</v>
       </c>
       <c r="AF3" t="n">
         <v>3.100815026318411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.21990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1914797.868810213</v>
+        <v>2282514.456006607</v>
       </c>
     </row>
     <row r="4">
@@ -18259,28 +18259,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1385.165669027451</v>
+        <v>1663.162207914088</v>
       </c>
       <c r="AB4" t="n">
-        <v>1895.244777559805</v>
+        <v>2275.611906406223</v>
       </c>
       <c r="AC4" t="n">
-        <v>1714.365275982248</v>
+        <v>2058.430699900182</v>
       </c>
       <c r="AD4" t="n">
-        <v>1385165.66902745</v>
+        <v>1663162.207914087</v>
       </c>
       <c r="AE4" t="n">
-        <v>1895244.777559805</v>
+        <v>2275611.906406223</v>
       </c>
       <c r="AF4" t="n">
         <v>3.339922569322933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.91435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1714365.275982248</v>
+        <v>2058430.699900182</v>
       </c>
     </row>
     <row r="5">
@@ -18365,28 +18365,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1311.238136440929</v>
+        <v>1579.646231543973</v>
       </c>
       <c r="AB5" t="n">
-        <v>1794.09386602237</v>
+        <v>2161.341663071792</v>
       </c>
       <c r="AC5" t="n">
-        <v>1622.86806547575</v>
+        <v>1955.066248210295</v>
       </c>
       <c r="AD5" t="n">
-        <v>1311238.136440929</v>
+        <v>1579646.231543973</v>
       </c>
       <c r="AE5" t="n">
-        <v>1794093.86602237</v>
+        <v>2161341.663071792</v>
       </c>
       <c r="AF5" t="n">
         <v>3.465284621222064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.88888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1622868.06547575</v>
+        <v>1955066.248210295</v>
       </c>
     </row>
     <row r="6">
@@ -18471,28 +18471,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1266.414948397745</v>
+        <v>1525.268765135977</v>
       </c>
       <c r="AB6" t="n">
-        <v>1732.764802682191</v>
+        <v>2086.940014567863</v>
       </c>
       <c r="AC6" t="n">
-        <v>1567.392161864877</v>
+        <v>1887.765388616212</v>
       </c>
       <c r="AD6" t="n">
-        <v>1266414.948397745</v>
+        <v>1525268.765135976</v>
       </c>
       <c r="AE6" t="n">
-        <v>1732764.802682191</v>
+        <v>2086940.014567863</v>
       </c>
       <c r="AF6" t="n">
         <v>3.545793841167581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.66203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1567392.161864877</v>
+        <v>1887765.388616212</v>
       </c>
     </row>
     <row r="7">
@@ -18577,28 +18577,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1234.56948583555</v>
+        <v>1493.389137155001</v>
       </c>
       <c r="AB7" t="n">
-        <v>1689.192435881943</v>
+        <v>2043.320901134367</v>
       </c>
       <c r="AC7" t="n">
-        <v>1527.978280597843</v>
+        <v>1848.309222148999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1234569.48583555</v>
+        <v>1493389.137155001</v>
       </c>
       <c r="AE7" t="n">
-        <v>1689192.435881943</v>
+        <v>2043320.901134367</v>
       </c>
       <c r="AF7" t="n">
         <v>3.592260084342548e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.97916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1527978.280597843</v>
+        <v>1848309.222148999</v>
       </c>
     </row>
     <row r="8">
@@ -18683,28 +18683,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1214.397665146833</v>
+        <v>1463.595718293768</v>
       </c>
       <c r="AB8" t="n">
-        <v>1661.592460897719</v>
+        <v>2002.556231055552</v>
       </c>
       <c r="AC8" t="n">
-        <v>1503.012408489305</v>
+        <v>1811.435074968933</v>
       </c>
       <c r="AD8" t="n">
-        <v>1214397.665146833</v>
+        <v>1463595.718293767</v>
       </c>
       <c r="AE8" t="n">
-        <v>1661592.460897719</v>
+        <v>2002556.231055552</v>
       </c>
       <c r="AF8" t="n">
         <v>3.63307938824278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.40046296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>1503012.408489306</v>
+        <v>1811435.074968933</v>
       </c>
     </row>
     <row r="9">
@@ -18789,28 +18789,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1189.126738814924</v>
+        <v>1447.912224715594</v>
       </c>
       <c r="AB9" t="n">
-        <v>1627.015664615815</v>
+        <v>1981.097383234992</v>
       </c>
       <c r="AC9" t="n">
-        <v>1471.735573115709</v>
+        <v>1792.024229466684</v>
       </c>
       <c r="AD9" t="n">
-        <v>1189126.738814924</v>
+        <v>1447912.224715594</v>
       </c>
       <c r="AE9" t="n">
-        <v>1627015.664615815</v>
+        <v>1981097.383234992</v>
       </c>
       <c r="AF9" t="n">
         <v>3.661475425738594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.99537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1471735.573115709</v>
+        <v>1792024.229466684</v>
       </c>
     </row>
     <row r="10">
@@ -18895,28 +18895,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1176.766238200519</v>
+        <v>1426.031611155157</v>
       </c>
       <c r="AB10" t="n">
-        <v>1610.103482368384</v>
+        <v>1951.159362457058</v>
       </c>
       <c r="AC10" t="n">
-        <v>1456.437465805575</v>
+        <v>1764.943451373521</v>
       </c>
       <c r="AD10" t="n">
-        <v>1176766.238200519</v>
+        <v>1426031.611155157</v>
       </c>
       <c r="AE10" t="n">
-        <v>1610103.482368384</v>
+        <v>1951159.362457058</v>
       </c>
       <c r="AF10" t="n">
         <v>3.6784162435628e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.76388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1456437.465805575</v>
+        <v>1764943.451373521</v>
       </c>
     </row>
     <row r="11">
@@ -19001,28 +19001,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1163.916897166646</v>
+        <v>1413.182270121285</v>
       </c>
       <c r="AB11" t="n">
-        <v>1592.522447092921</v>
+        <v>1933.578327181596</v>
       </c>
       <c r="AC11" t="n">
-        <v>1440.534339861664</v>
+        <v>1749.04032542961</v>
       </c>
       <c r="AD11" t="n">
-        <v>1163916.897166646</v>
+        <v>1413182.270121285</v>
       </c>
       <c r="AE11" t="n">
-        <v>1592522.447092921</v>
+        <v>1933578.327181596</v>
       </c>
       <c r="AF11" t="n">
         <v>3.697131813730496e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.50925925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>1440534.339861664</v>
+        <v>1749040.32542961</v>
       </c>
     </row>
     <row r="12">
@@ -19107,28 +19107,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1147.683020796026</v>
+        <v>1396.846908524179</v>
       </c>
       <c r="AB12" t="n">
-        <v>1570.310541254559</v>
+        <v>1911.227564779145</v>
       </c>
       <c r="AC12" t="n">
-        <v>1420.44230714191</v>
+        <v>1728.822688421357</v>
       </c>
       <c r="AD12" t="n">
-        <v>1147683.020796026</v>
+        <v>1396846.908524179</v>
       </c>
       <c r="AE12" t="n">
-        <v>1570310.541254559</v>
+        <v>1911227.564779144</v>
       </c>
       <c r="AF12" t="n">
         <v>3.718590182974492e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.21990740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>1420442.30714191</v>
+        <v>1728822.688421356</v>
       </c>
     </row>
     <row r="13">
@@ -19213,28 +19213,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1139.347285769425</v>
+        <v>1378.991060551547</v>
       </c>
       <c r="AB13" t="n">
-        <v>1558.905220844489</v>
+        <v>1886.796405838573</v>
       </c>
       <c r="AC13" t="n">
-        <v>1410.125494504309</v>
+        <v>1706.723205000726</v>
       </c>
       <c r="AD13" t="n">
-        <v>1139347.285769425</v>
+        <v>1378991.060551547</v>
       </c>
       <c r="AE13" t="n">
-        <v>1558905.220844489</v>
+        <v>1886796.405838573</v>
       </c>
       <c r="AF13" t="n">
         <v>3.726818580203391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1410125.494504309</v>
+        <v>1706723.205000727</v>
       </c>
     </row>
     <row r="14">
@@ -19319,28 +19319,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1120.50656859638</v>
+        <v>1369.737776132237</v>
       </c>
       <c r="AB14" t="n">
-        <v>1533.126520414549</v>
+        <v>1874.135653869976</v>
       </c>
       <c r="AC14" t="n">
-        <v>1386.807077062769</v>
+        <v>1695.270777430535</v>
       </c>
       <c r="AD14" t="n">
-        <v>1120506.56859638</v>
+        <v>1369737.776132237</v>
       </c>
       <c r="AE14" t="n">
-        <v>1533126.520414549</v>
+        <v>1874135.653869976</v>
       </c>
       <c r="AF14" t="n">
         <v>3.736015024165104e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH14" t="n">
-        <v>1386807.077062769</v>
+        <v>1695270.777430535</v>
       </c>
     </row>
     <row r="15">
@@ -19425,28 +19425,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1118.762544308446</v>
+        <v>1367.993751844304</v>
       </c>
       <c r="AB15" t="n">
-        <v>1530.740269442877</v>
+        <v>1871.749402898305</v>
       </c>
       <c r="AC15" t="n">
-        <v>1384.64856653471</v>
+        <v>1693.112266902476</v>
       </c>
       <c r="AD15" t="n">
-        <v>1118762.544308446</v>
+        <v>1367993.751844304</v>
       </c>
       <c r="AE15" t="n">
-        <v>1530740.269442877</v>
+        <v>1871749.402898305</v>
       </c>
       <c r="AF15" t="n">
         <v>3.739725869974216e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.93055555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1384648.56653471</v>
+        <v>1693112.266902476</v>
       </c>
     </row>
   </sheetData>
@@ -19722,28 +19722,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2464.002543388111</v>
+        <v>2869.178525528123</v>
       </c>
       <c r="AB2" t="n">
-        <v>3371.35698398407</v>
+        <v>3925.736637850835</v>
       </c>
       <c r="AC2" t="n">
-        <v>3049.599405161748</v>
+        <v>3551.06984294018</v>
       </c>
       <c r="AD2" t="n">
-        <v>2464002.543388112</v>
+        <v>2869178.525528123</v>
       </c>
       <c r="AE2" t="n">
-        <v>3371356.98398407</v>
+        <v>3925736.637850835</v>
       </c>
       <c r="AF2" t="n">
         <v>2.168940194367637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.27314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>3049599.405161748</v>
+        <v>3551069.84294018</v>
       </c>
     </row>
     <row r="3">
@@ -19828,28 +19828,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1689.119391271912</v>
+        <v>1997.818634496404</v>
       </c>
       <c r="AB3" t="n">
-        <v>2311.127669826507</v>
+        <v>2733.503593255698</v>
       </c>
       <c r="AC3" t="n">
-        <v>2090.556888706321</v>
+        <v>2472.621846811762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1689119.391271912</v>
+        <v>1997818.634496404</v>
       </c>
       <c r="AE3" t="n">
-        <v>2311127.669826507</v>
+        <v>2733503.593255698</v>
       </c>
       <c r="AF3" t="n">
         <v>2.833846309281912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.19907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>2090556.888706321</v>
+        <v>2472621.846811762</v>
       </c>
     </row>
     <row r="4">
@@ -19934,28 +19934,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1501.68818090802</v>
+        <v>1781.468318251003</v>
       </c>
       <c r="AB4" t="n">
-        <v>2054.676018925218</v>
+        <v>2437.48354586642</v>
       </c>
       <c r="AC4" t="n">
-        <v>1858.580623434899</v>
+        <v>2204.853537278571</v>
       </c>
       <c r="AD4" t="n">
-        <v>1501688.18090802</v>
+        <v>1781468.318251003</v>
       </c>
       <c r="AE4" t="n">
-        <v>2054676.018925218</v>
+        <v>2437483.54586642</v>
       </c>
       <c r="AF4" t="n">
         <v>3.081929694805355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1858580.623434899</v>
+        <v>2204853.537278571</v>
       </c>
     </row>
     <row r="5">
@@ -20040,28 +20040,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1407.141907685264</v>
+        <v>1686.92103399839</v>
       </c>
       <c r="AB5" t="n">
-        <v>1925.313636814649</v>
+        <v>2308.119780420197</v>
       </c>
       <c r="AC5" t="n">
-        <v>1741.564405511719</v>
+        <v>2087.83606804335</v>
       </c>
       <c r="AD5" t="n">
-        <v>1407141.907685264</v>
+        <v>1686921.03399839</v>
       </c>
       <c r="AE5" t="n">
-        <v>1925313.636814649</v>
+        <v>2308119.780420197</v>
       </c>
       <c r="AF5" t="n">
         <v>3.214728167596296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.82638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1741564.405511719</v>
+        <v>2087836.06804335</v>
       </c>
     </row>
     <row r="6">
@@ -20146,28 +20146,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1359.370271594572</v>
+        <v>1629.532472893049</v>
       </c>
       <c r="AB6" t="n">
-        <v>1859.950376779522</v>
+        <v>2229.598219311239</v>
       </c>
       <c r="AC6" t="n">
-        <v>1682.439323276433</v>
+        <v>2016.808494520928</v>
       </c>
       <c r="AD6" t="n">
-        <v>1359370.271594572</v>
+        <v>1629532.472893049</v>
       </c>
       <c r="AE6" t="n">
-        <v>1859950.376779523</v>
+        <v>2229598.219311239</v>
       </c>
       <c r="AF6" t="n">
         <v>3.293767625599161e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.51851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>1682439.323276433</v>
+        <v>2016808.494520928</v>
       </c>
     </row>
     <row r="7">
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1323.784447767353</v>
+        <v>1584.329724051181</v>
       </c>
       <c r="AB7" t="n">
-        <v>1811.260282683375</v>
+        <v>2167.74982414126</v>
       </c>
       <c r="AC7" t="n">
-        <v>1638.396143423846</v>
+        <v>1960.862823381204</v>
       </c>
       <c r="AD7" t="n">
-        <v>1323784.447767353</v>
+        <v>1584329.724051181</v>
       </c>
       <c r="AE7" t="n">
-        <v>1811260.282683375</v>
+        <v>2167749.82414126</v>
       </c>
       <c r="AF7" t="n">
         <v>3.347222056734047e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.66203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1638396.143423846</v>
+        <v>1960862.823381204</v>
       </c>
     </row>
     <row r="8">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1302.110051961904</v>
+        <v>1552.971083423378</v>
       </c>
       <c r="AB8" t="n">
-        <v>1781.604418135502</v>
+        <v>2124.843548588714</v>
       </c>
       <c r="AC8" t="n">
-        <v>1611.570592966155</v>
+        <v>1922.051462548058</v>
       </c>
       <c r="AD8" t="n">
-        <v>1302110.051961904</v>
+        <v>1552971.083423378</v>
       </c>
       <c r="AE8" t="n">
-        <v>1781604.418135502</v>
+        <v>2124843.548588715</v>
       </c>
       <c r="AF8" t="n">
         <v>3.389406892700893e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.00231481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>1611570.592966155</v>
+        <v>1922051.462548058</v>
       </c>
     </row>
     <row r="9">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1274.838638908459</v>
+        <v>1535.349749773506</v>
       </c>
       <c r="AB9" t="n">
-        <v>1744.290467665948</v>
+        <v>2100.733262490585</v>
       </c>
       <c r="AC9" t="n">
-        <v>1577.817833558956</v>
+        <v>1900.242228316135</v>
       </c>
       <c r="AD9" t="n">
-        <v>1274838.638908459</v>
+        <v>1535349.749773506</v>
       </c>
       <c r="AE9" t="n">
-        <v>1744290.467665948</v>
+        <v>2100733.262490585</v>
       </c>
       <c r="AF9" t="n">
         <v>3.420474425326297e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.52777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1577817.833558956</v>
+        <v>1900242.228316135</v>
       </c>
     </row>
     <row r="10">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1261.335415031473</v>
+        <v>1512.162281074166</v>
       </c>
       <c r="AB10" t="n">
-        <v>1725.814761037262</v>
+        <v>2069.007144857226</v>
       </c>
       <c r="AC10" t="n">
-        <v>1561.105422440095</v>
+        <v>1871.544006821818</v>
       </c>
       <c r="AD10" t="n">
-        <v>1261335.415031473</v>
+        <v>1512162.281074167</v>
       </c>
       <c r="AE10" t="n">
-        <v>1725814.761037262</v>
+        <v>2069007.144857226</v>
       </c>
       <c r="AF10" t="n">
         <v>3.443927366621946e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.18055555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>1561105.422440095</v>
+        <v>1871544.006821818</v>
       </c>
     </row>
     <row r="11">
@@ -20676,28 +20676,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1239.457440133544</v>
+        <v>1499.93438557981</v>
       </c>
       <c r="AB11" t="n">
-        <v>1695.880350593783</v>
+        <v>2052.276398785173</v>
       </c>
       <c r="AC11" t="n">
-        <v>1534.027910116132</v>
+        <v>1856.410019673132</v>
       </c>
       <c r="AD11" t="n">
-        <v>1239457.440133544</v>
+        <v>1499934.38557981</v>
       </c>
       <c r="AE11" t="n">
-        <v>1695880.350593783</v>
+        <v>2052276.398785172</v>
       </c>
       <c r="AF11" t="n">
         <v>3.461897802160169e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.91435185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1534027.910116133</v>
+        <v>1856410.019673131</v>
       </c>
     </row>
     <row r="12">
@@ -20782,28 +20782,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1229.193035513144</v>
+        <v>1480.087221363542</v>
       </c>
       <c r="AB12" t="n">
-        <v>1681.836139358579</v>
+        <v>2025.120633109385</v>
       </c>
       <c r="AC12" t="n">
-        <v>1521.324058690042</v>
+        <v>1831.845962160084</v>
       </c>
       <c r="AD12" t="n">
-        <v>1229193.035513144</v>
+        <v>1480087.221363542</v>
       </c>
       <c r="AE12" t="n">
-        <v>1681836.139358579</v>
+        <v>2025120.633109385</v>
       </c>
       <c r="AF12" t="n">
         <v>3.475451774727134e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.71759259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>1521324.058690042</v>
+        <v>1831845.962160084</v>
       </c>
     </row>
     <row r="13">
@@ -20888,28 +20888,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1216.95871296883</v>
+        <v>1467.751413592743</v>
       </c>
       <c r="AB13" t="n">
-        <v>1665.096599513231</v>
+        <v>2008.242236699948</v>
       </c>
       <c r="AC13" t="n">
-        <v>1506.182117033443</v>
+        <v>1816.578416214986</v>
       </c>
       <c r="AD13" t="n">
-        <v>1216958.71296883</v>
+        <v>1467751.413592743</v>
       </c>
       <c r="AE13" t="n">
-        <v>1665096.599513231</v>
+        <v>2008242.236699948</v>
       </c>
       <c r="AF13" t="n">
         <v>3.49052866556005e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.49768518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>1506182.117033443</v>
+        <v>1816578.416214986</v>
       </c>
     </row>
     <row r="14">
@@ -20994,28 +20994,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1206.859033216086</v>
+        <v>1457.651733839999</v>
       </c>
       <c r="AB14" t="n">
-        <v>1651.277772109102</v>
+        <v>1994.423409295819</v>
       </c>
       <c r="AC14" t="n">
-        <v>1493.682139121918</v>
+        <v>1804.078438303461</v>
       </c>
       <c r="AD14" t="n">
-        <v>1206859.033216086</v>
+        <v>1457651.733839998</v>
       </c>
       <c r="AE14" t="n">
-        <v>1651277.772109102</v>
+        <v>1994423.409295819</v>
       </c>
       <c r="AF14" t="n">
         <v>3.498752424196187e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.38194444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1493682.139121918</v>
+        <v>1804078.438303461</v>
       </c>
     </row>
     <row r="15">
@@ -21100,28 +21100,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1198.906254738423</v>
+        <v>1449.698955362335</v>
       </c>
       <c r="AB15" t="n">
-        <v>1640.396429744139</v>
+        <v>1983.542066930856</v>
       </c>
       <c r="AC15" t="n">
-        <v>1483.839296800207</v>
+        <v>1794.23559598175</v>
       </c>
       <c r="AD15" t="n">
-        <v>1198906.254738423</v>
+        <v>1449698.955362336</v>
       </c>
       <c r="AE15" t="n">
-        <v>1640396.429744139</v>
+        <v>1983542.066930856</v>
       </c>
       <c r="AF15" t="n">
         <v>3.506823891005728e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.2662037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>1483839.296800207</v>
+        <v>1794235.59598175</v>
       </c>
     </row>
     <row r="16">
@@ -21206,28 +21206,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1188.121539650328</v>
+        <v>1429.331480678372</v>
       </c>
       <c r="AB16" t="n">
-        <v>1625.640306772557</v>
+        <v>1955.67438951869</v>
       </c>
       <c r="AC16" t="n">
-        <v>1470.491477494684</v>
+        <v>1769.027570589271</v>
       </c>
       <c r="AD16" t="n">
-        <v>1188121.539650328</v>
+        <v>1429331.480678372</v>
       </c>
       <c r="AE16" t="n">
-        <v>1625640.306772557</v>
+        <v>1955674.38951869</v>
       </c>
       <c r="AF16" t="n">
         <v>3.519616404439718e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.08101851851853</v>
       </c>
       <c r="AH16" t="n">
-        <v>1470491.477494684</v>
+        <v>1769027.570589271</v>
       </c>
     </row>
     <row r="17">
@@ -21312,28 +21312,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1168.138885637119</v>
+        <v>1418.998906068736</v>
       </c>
       <c r="AB17" t="n">
-        <v>1598.299157979207</v>
+        <v>1941.536905096766</v>
       </c>
       <c r="AC17" t="n">
-        <v>1445.759729568628</v>
+        <v>1756.23934783849</v>
       </c>
       <c r="AD17" t="n">
-        <v>1168138.885637119</v>
+        <v>1418998.906068736</v>
       </c>
       <c r="AE17" t="n">
-        <v>1598299.157979207</v>
+        <v>1941536.905096766</v>
       </c>
       <c r="AF17" t="n">
         <v>3.527840163075854e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.96527777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1445759.729568628</v>
+        <v>1756239.347838491</v>
       </c>
     </row>
     <row r="18">
@@ -21418,28 +21418,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1168.253709352645</v>
+        <v>1419.113729784262</v>
       </c>
       <c r="AB18" t="n">
-        <v>1598.456264852455</v>
+        <v>1941.694011970013</v>
       </c>
       <c r="AC18" t="n">
-        <v>1445.901842382394</v>
+        <v>1756.381460652256</v>
       </c>
       <c r="AD18" t="n">
-        <v>1168253.709352645</v>
+        <v>1419113.729784261</v>
       </c>
       <c r="AE18" t="n">
-        <v>1598456.264852454</v>
+        <v>1941694.011970013</v>
       </c>
       <c r="AF18" t="n">
         <v>3.525708077503522e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH18" t="n">
-        <v>1445901.842382394</v>
+        <v>1756381.460652256</v>
       </c>
     </row>
   </sheetData>
@@ -21715,28 +21715,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3187.154120574227</v>
+        <v>3655.667703202903</v>
       </c>
       <c r="AB2" t="n">
-        <v>4360.804875086142</v>
+        <v>5001.845828199226</v>
       </c>
       <c r="AC2" t="n">
-        <v>3944.615778235838</v>
+        <v>4524.476682490414</v>
       </c>
       <c r="AD2" t="n">
-        <v>3187154.120574228</v>
+        <v>3655667.703202903</v>
       </c>
       <c r="AE2" t="n">
-        <v>4360804.875086142</v>
+        <v>5001845.828199226</v>
       </c>
       <c r="AF2" t="n">
         <v>1.725533246321114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.8587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>3944615.778235838</v>
+        <v>4524476.682490414</v>
       </c>
     </row>
     <row r="3">
@@ -21821,28 +21821,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1995.190108909313</v>
+        <v>2336.786836839965</v>
       </c>
       <c r="AB3" t="n">
-        <v>2729.907128585077</v>
+        <v>3197.294841924014</v>
       </c>
       <c r="AC3" t="n">
-        <v>2469.368623681636</v>
+        <v>2892.14950964216</v>
       </c>
       <c r="AD3" t="n">
-        <v>1995190.108909314</v>
+        <v>2336786.836839966</v>
       </c>
       <c r="AE3" t="n">
-        <v>2729907.128585077</v>
+        <v>3197294.841924014</v>
       </c>
       <c r="AF3" t="n">
         <v>2.403342198021063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2469368.623681636</v>
+        <v>2892149.50964216</v>
       </c>
     </row>
     <row r="4">
@@ -21927,28 +21927,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1733.615191733357</v>
+        <v>2026.432921228788</v>
       </c>
       <c r="AB4" t="n">
-        <v>2372.008787034029</v>
+        <v>2772.654922736183</v>
       </c>
       <c r="AC4" t="n">
-        <v>2145.627597534743</v>
+        <v>2508.036628355866</v>
       </c>
       <c r="AD4" t="n">
-        <v>1733615.191733357</v>
+        <v>2026432.921228788</v>
       </c>
       <c r="AE4" t="n">
-        <v>2372008.78703403</v>
+        <v>2772654.922736183</v>
       </c>
       <c r="AF4" t="n">
         <v>2.669011188689405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.03472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2145627.597534743</v>
+        <v>2508036.628355865</v>
       </c>
     </row>
     <row r="5">
@@ -22033,28 +22033,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1601.511830670973</v>
+        <v>1894.294383717766</v>
       </c>
       <c r="AB5" t="n">
-        <v>2191.259140439505</v>
+        <v>2591.857146172757</v>
       </c>
       <c r="AC5" t="n">
-        <v>1982.128443527478</v>
+        <v>2344.49393783638</v>
       </c>
       <c r="AD5" t="n">
-        <v>1601511.830670973</v>
+        <v>1894294.383717766</v>
       </c>
       <c r="AE5" t="n">
-        <v>2191259.140439505</v>
+        <v>2591857.146172756</v>
       </c>
       <c r="AF5" t="n">
         <v>2.815066834940109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.9212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1982128.443527478</v>
+        <v>2344493.93783638</v>
       </c>
     </row>
     <row r="6">
@@ -22139,28 +22139,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1542.126494152733</v>
+        <v>1815.384388275841</v>
       </c>
       <c r="AB6" t="n">
-        <v>2110.005503119105</v>
+        <v>2483.889009145811</v>
       </c>
       <c r="AC6" t="n">
-        <v>1908.62953931274</v>
+        <v>2246.830128273054</v>
       </c>
       <c r="AD6" t="n">
-        <v>1542126.494152733</v>
+        <v>1815384.388275841</v>
       </c>
       <c r="AE6" t="n">
-        <v>2110005.503119105</v>
+        <v>2483889.009145811</v>
       </c>
       <c r="AF6" t="n">
         <v>2.900069836644311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.25462962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>1908629.53931274</v>
+        <v>2246830.128273054</v>
       </c>
     </row>
     <row r="7">
@@ -22245,28 +22245,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1496.419813147739</v>
+        <v>1759.949037712856</v>
       </c>
       <c r="AB7" t="n">
-        <v>2047.467605731619</v>
+        <v>2408.039916870473</v>
       </c>
       <c r="AC7" t="n">
-        <v>1852.060171079426</v>
+        <v>2178.219966909603</v>
       </c>
       <c r="AD7" t="n">
-        <v>1496419.813147739</v>
+        <v>1759949.037712856</v>
       </c>
       <c r="AE7" t="n">
-        <v>2047467.605731619</v>
+        <v>2408039.916870472</v>
       </c>
       <c r="AF7" t="n">
         <v>2.963199101753619e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.07407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1852060.171079426</v>
+        <v>2178219.966909604</v>
       </c>
     </row>
     <row r="8">
@@ -22351,28 +22351,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1462.240684070797</v>
+        <v>1725.735743217134</v>
       </c>
       <c r="AB8" t="n">
-        <v>2000.702213451793</v>
+        <v>2361.227777957399</v>
       </c>
       <c r="AC8" t="n">
-        <v>1809.758002203146</v>
+        <v>2135.875512833145</v>
       </c>
       <c r="AD8" t="n">
-        <v>1462240.684070797</v>
+        <v>1725735.743217134</v>
       </c>
       <c r="AE8" t="n">
-        <v>2000702.213451793</v>
+        <v>2361227.777957399</v>
       </c>
       <c r="AF8" t="n">
         <v>3.005977485347428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.29861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1809758.002203146</v>
+        <v>2135875.512833145</v>
       </c>
     </row>
     <row r="9">
@@ -22457,28 +22457,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1432.307274751564</v>
+        <v>1695.869653705605</v>
       </c>
       <c r="AB9" t="n">
-        <v>1959.7460022524</v>
+        <v>2320.363676688848</v>
       </c>
       <c r="AC9" t="n">
-        <v>1772.71059431822</v>
+        <v>2098.911424036537</v>
       </c>
       <c r="AD9" t="n">
-        <v>1432307.274751564</v>
+        <v>1695869.653705605</v>
       </c>
       <c r="AE9" t="n">
-        <v>1959746.0022524</v>
+        <v>2320363.676688848</v>
       </c>
       <c r="AF9" t="n">
         <v>3.040449386690011e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.69675925925927</v>
       </c>
       <c r="AH9" t="n">
-        <v>1772710.59431822</v>
+        <v>2098911.424036537</v>
       </c>
     </row>
     <row r="10">
@@ -22563,28 +22563,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1416.91061902623</v>
+        <v>1680.371512753786</v>
       </c>
       <c r="AB10" t="n">
-        <v>1938.679618636487</v>
+        <v>2299.158436508845</v>
       </c>
       <c r="AC10" t="n">
-        <v>1753.654756787754</v>
+        <v>2079.729982217572</v>
       </c>
       <c r="AD10" t="n">
-        <v>1416910.619026229</v>
+        <v>1680371.512753786</v>
       </c>
       <c r="AE10" t="n">
-        <v>1938679.618636487</v>
+        <v>2299158.436508845</v>
       </c>
       <c r="AF10" t="n">
         <v>3.06550727481454e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.26851851851851</v>
       </c>
       <c r="AH10" t="n">
-        <v>1753654.756787754</v>
+        <v>2079729.982217572</v>
       </c>
     </row>
     <row r="11">
@@ -22669,28 +22669,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1391.729295395626</v>
+        <v>1655.257508930887</v>
       </c>
       <c r="AB11" t="n">
-        <v>1904.225420723502</v>
+        <v>2264.796348526701</v>
       </c>
       <c r="AC11" t="n">
-        <v>1722.488819166814</v>
+        <v>2048.647363684951</v>
       </c>
       <c r="AD11" t="n">
-        <v>1391729.295395626</v>
+        <v>1655257.508930887</v>
       </c>
       <c r="AE11" t="n">
-        <v>1904225.420723502</v>
+        <v>2264796.348526701</v>
       </c>
       <c r="AF11" t="n">
         <v>3.090149838826506e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1722488.819166814</v>
+        <v>2048647.363684951</v>
       </c>
     </row>
     <row r="12">
@@ -22775,28 +22775,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1382.26724668506</v>
+        <v>1645.795460220321</v>
       </c>
       <c r="AB12" t="n">
-        <v>1891.279028241577</v>
+        <v>2251.849956044776</v>
       </c>
       <c r="AC12" t="n">
-        <v>1710.778012212988</v>
+        <v>2036.936556731125</v>
       </c>
       <c r="AD12" t="n">
-        <v>1382267.24668506</v>
+        <v>1645795.460220321</v>
       </c>
       <c r="AE12" t="n">
-        <v>1891279.028241577</v>
+        <v>2251849.956044776</v>
       </c>
       <c r="AF12" t="n">
         <v>3.102886444945051e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.64351851851851</v>
       </c>
       <c r="AH12" t="n">
-        <v>1710778.012212988</v>
+        <v>2036936.556731125</v>
       </c>
     </row>
     <row r="13">
@@ -22881,28 +22881,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1369.814659365949</v>
+        <v>1623.546883535515</v>
       </c>
       <c r="AB13" t="n">
-        <v>1874.24084890219</v>
+        <v>2221.408471886696</v>
       </c>
       <c r="AC13" t="n">
-        <v>1695.365932796517</v>
+        <v>2009.400365096201</v>
       </c>
       <c r="AD13" t="n">
-        <v>1369814.659365949</v>
+        <v>1623546.883535515</v>
       </c>
       <c r="AE13" t="n">
-        <v>1874240.84890219</v>
+        <v>2221408.471886696</v>
       </c>
       <c r="AF13" t="n">
         <v>3.121852912752014e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.33101851851853</v>
       </c>
       <c r="AH13" t="n">
-        <v>1695365.932796517</v>
+        <v>2009400.365096201</v>
       </c>
     </row>
     <row r="14">
@@ -22987,28 +22987,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1362.455456427288</v>
+        <v>1616.187680596853</v>
       </c>
       <c r="AB14" t="n">
-        <v>1864.171662776393</v>
+        <v>2211.339285760899</v>
       </c>
       <c r="AC14" t="n">
-        <v>1686.257735662374</v>
+        <v>2000.292167962058</v>
       </c>
       <c r="AD14" t="n">
-        <v>1362455.456427288</v>
+        <v>1616187.680596853</v>
       </c>
       <c r="AE14" t="n">
-        <v>1864171.662776393</v>
+        <v>2211339.285760899</v>
       </c>
       <c r="AF14" t="n">
         <v>3.131128484599216e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.16898148148149</v>
       </c>
       <c r="AH14" t="n">
-        <v>1686257.735662374</v>
+        <v>2000292.167962058</v>
       </c>
     </row>
     <row r="15">
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1353.63905690236</v>
+        <v>1607.371281071926</v>
       </c>
       <c r="AB15" t="n">
-        <v>1852.108675994291</v>
+        <v>2199.276298978797</v>
       </c>
       <c r="AC15" t="n">
-        <v>1675.346023408248</v>
+        <v>1989.380455707932</v>
       </c>
       <c r="AD15" t="n">
-        <v>1353639.05690236</v>
+        <v>1607371.281071926</v>
       </c>
       <c r="AE15" t="n">
-        <v>1852108.675994291</v>
+        <v>2199276.298978797</v>
       </c>
       <c r="AF15" t="n">
         <v>3.139988732333856e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.0300925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1675346.023408248</v>
+        <v>1989380.455707932</v>
       </c>
     </row>
     <row r="16">
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1335.333956596232</v>
+        <v>1598.828004712712</v>
       </c>
       <c r="AB16" t="n">
-        <v>1827.062830191416</v>
+        <v>2187.587011361367</v>
       </c>
       <c r="AC16" t="n">
-        <v>1652.690517976734</v>
+        <v>1978.806777294692</v>
       </c>
       <c r="AD16" t="n">
-        <v>1335333.956596232</v>
+        <v>1598828.004712712</v>
       </c>
       <c r="AE16" t="n">
-        <v>1827062.830191416</v>
+        <v>2187587.011361368</v>
       </c>
       <c r="AF16" t="n">
         <v>3.148987421439349e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.87962962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1652690.517976734</v>
+        <v>1978806.777294692</v>
       </c>
     </row>
     <row r="17">
@@ -23305,28 +23305,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1328.394132135038</v>
+        <v>1582.193676112309</v>
       </c>
       <c r="AB17" t="n">
-        <v>1817.567456200164</v>
+        <v>2164.827189115511</v>
       </c>
       <c r="AC17" t="n">
-        <v>1644.101369152366</v>
+        <v>1958.219120540369</v>
       </c>
       <c r="AD17" t="n">
-        <v>1328394.132135038</v>
+        <v>1582193.676112309</v>
       </c>
       <c r="AE17" t="n">
-        <v>1817567.456200164</v>
+        <v>2164827.189115511</v>
       </c>
       <c r="AF17" t="n">
         <v>3.158678317399112e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.72916666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1644101.369152366</v>
+        <v>1958219.120540369</v>
       </c>
     </row>
     <row r="18">
@@ -23411,28 +23411,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1318.104259318432</v>
+        <v>1571.903803295702</v>
       </c>
       <c r="AB18" t="n">
-        <v>1803.488398255333</v>
+        <v>2150.74813117068</v>
       </c>
       <c r="AC18" t="n">
-        <v>1631.365996737708</v>
+        <v>1945.48374812571</v>
       </c>
       <c r="AD18" t="n">
-        <v>1318104.259318432</v>
+        <v>1571903.803295702</v>
       </c>
       <c r="AE18" t="n">
-        <v>1803488.398255333</v>
+        <v>2150748.13117068</v>
       </c>
       <c r="AF18" t="n">
         <v>3.17044583392168e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.54398148148149</v>
       </c>
       <c r="AH18" t="n">
-        <v>1631365.996737708</v>
+        <v>1945483.748125711</v>
       </c>
     </row>
     <row r="19">
@@ -23517,28 +23517,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1312.728548032107</v>
+        <v>1566.426606782892</v>
       </c>
       <c r="AB19" t="n">
-        <v>1796.133112913739</v>
+        <v>2143.253989264997</v>
       </c>
       <c r="AC19" t="n">
-        <v>1624.712689505908</v>
+        <v>1938.704836605412</v>
       </c>
       <c r="AD19" t="n">
-        <v>1312728.548032107</v>
+        <v>1566426.606782892</v>
       </c>
       <c r="AE19" t="n">
-        <v>1796133.112913739</v>
+        <v>2143253.989264997</v>
       </c>
       <c r="AF19" t="n">
         <v>3.174599075047292e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.47453703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>1624712.689505908</v>
+        <v>1938704.836605412</v>
       </c>
     </row>
     <row r="20">
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1306.336781125872</v>
+        <v>1560.034839876657</v>
       </c>
       <c r="AB20" t="n">
-        <v>1787.387615447774</v>
+        <v>2134.508491799032</v>
       </c>
       <c r="AC20" t="n">
-        <v>1616.801850043712</v>
+        <v>1930.793997143215</v>
       </c>
       <c r="AD20" t="n">
-        <v>1306336.781125872</v>
+        <v>1560034.839876657</v>
       </c>
       <c r="AE20" t="n">
-        <v>1787387.615447774</v>
+        <v>2134508.491799032</v>
       </c>
       <c r="AF20" t="n">
         <v>3.179167640285466e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.40509259259259</v>
       </c>
       <c r="AH20" t="n">
-        <v>1616801.850043712</v>
+        <v>1930793.997143215</v>
       </c>
     </row>
     <row r="21">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1298.502757937651</v>
+        <v>1552.200816688436</v>
       </c>
       <c r="AB21" t="n">
-        <v>1776.668759308939</v>
+        <v>2123.789635660197</v>
       </c>
       <c r="AC21" t="n">
-        <v>1607.105986490758</v>
+        <v>1921.098133590261</v>
       </c>
       <c r="AD21" t="n">
-        <v>1298502.757937651</v>
+        <v>1552200.816688436</v>
       </c>
       <c r="AE21" t="n">
-        <v>1776668.759308939</v>
+        <v>2123789.635660197</v>
       </c>
       <c r="AF21" t="n">
         <v>3.183597764152786e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.33564814814815</v>
       </c>
       <c r="AH21" t="n">
-        <v>1607105.986490758</v>
+        <v>1921098.133590261</v>
       </c>
     </row>
     <row r="22">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1292.864643916533</v>
+        <v>1546.562702667318</v>
       </c>
       <c r="AB22" t="n">
-        <v>1768.954442969209</v>
+        <v>2116.075319320468</v>
       </c>
       <c r="AC22" t="n">
-        <v>1600.127913675381</v>
+        <v>1914.120060774885</v>
       </c>
       <c r="AD22" t="n">
-        <v>1292864.643916533</v>
+        <v>1546562.702667318</v>
       </c>
       <c r="AE22" t="n">
-        <v>1768954.442969209</v>
+        <v>2116075.319320468</v>
       </c>
       <c r="AF22" t="n">
         <v>3.188027888020106e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.2662037037037</v>
       </c>
       <c r="AH22" t="n">
-        <v>1600127.913675381</v>
+        <v>1914120.060774885</v>
       </c>
     </row>
     <row r="23">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1285.613314863886</v>
+        <v>1539.311373614671</v>
       </c>
       <c r="AB23" t="n">
-        <v>1759.032854653317</v>
+        <v>2106.153731004575</v>
       </c>
       <c r="AC23" t="n">
-        <v>1591.153227823321</v>
+        <v>1905.145374922825</v>
       </c>
       <c r="AD23" t="n">
-        <v>1285613.314863886</v>
+        <v>1539311.373614671</v>
       </c>
       <c r="AE23" t="n">
-        <v>1759032.854653317</v>
+        <v>2106153.731004575</v>
       </c>
       <c r="AF23" t="n">
         <v>3.193427101483402e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.17361111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>1591153.227823321</v>
+        <v>1905145.374922825</v>
       </c>
     </row>
     <row r="24">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1279.414914784675</v>
+        <v>1523.418469396251</v>
       </c>
       <c r="AB24" t="n">
-        <v>1750.55193021083</v>
+        <v>2084.408358307483</v>
       </c>
       <c r="AC24" t="n">
-        <v>1583.481710906573</v>
+        <v>1885.475350076122</v>
       </c>
       <c r="AD24" t="n">
-        <v>1279414.914784675</v>
+        <v>1523418.469396251</v>
       </c>
       <c r="AE24" t="n">
-        <v>1750551.93021083</v>
+        <v>2084408.358307484</v>
       </c>
       <c r="AF24" t="n">
         <v>3.198549432204991e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.0925925925926</v>
       </c>
       <c r="AH24" t="n">
-        <v>1583481.710906573</v>
+        <v>1885475.350076122</v>
       </c>
     </row>
     <row r="25">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1274.563712942621</v>
+        <v>1518.567267554197</v>
       </c>
       <c r="AB25" t="n">
-        <v>1743.914301830611</v>
+        <v>2077.770729927265</v>
       </c>
       <c r="AC25" t="n">
-        <v>1577.477568462992</v>
+        <v>1879.471207632541</v>
       </c>
       <c r="AD25" t="n">
-        <v>1274563.712942621</v>
+        <v>1518567.267554197</v>
       </c>
       <c r="AE25" t="n">
-        <v>1743914.301830611</v>
+        <v>2077770.729927265</v>
       </c>
       <c r="AF25" t="n">
         <v>3.203671762926579e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>51</v>
+        <v>50.01157407407408</v>
       </c>
       <c r="AH25" t="n">
-        <v>1577477.568462992</v>
+        <v>1879471.207632541</v>
       </c>
     </row>
     <row r="26">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1277.348285638569</v>
+        <v>1521.351840250144</v>
       </c>
       <c r="AB26" t="n">
-        <v>1747.724277039883</v>
+        <v>2081.580705136537</v>
       </c>
       <c r="AC26" t="n">
-        <v>1580.923924985625</v>
+        <v>1882.917564155174</v>
       </c>
       <c r="AD26" t="n">
-        <v>1277348.285638569</v>
+        <v>1521351.840250144</v>
       </c>
       <c r="AE26" t="n">
-        <v>1747724.277039883</v>
+        <v>2081580.705136537</v>
       </c>
       <c r="AF26" t="n">
         <v>3.20256423195975e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH26" t="n">
-        <v>1580923.924985625</v>
+        <v>1882917.564155174</v>
       </c>
     </row>
     <row r="27">
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1280.35504420003</v>
+        <v>1524.358598811606</v>
       </c>
       <c r="AB27" t="n">
-        <v>1751.8382567525</v>
+        <v>2085.694684849154</v>
       </c>
       <c r="AC27" t="n">
-        <v>1584.645272248477</v>
+        <v>1886.638911418026</v>
       </c>
       <c r="AD27" t="n">
-        <v>1280355.04420003</v>
+        <v>1524358.598811605</v>
       </c>
       <c r="AE27" t="n">
-        <v>1751838.2567525</v>
+        <v>2085694.684849154</v>
       </c>
       <c r="AF27" t="n">
         <v>3.202841114701457e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>51</v>
+        <v>50.02314814814815</v>
       </c>
       <c r="AH27" t="n">
-        <v>1584645.272248477</v>
+        <v>1886638.911418026</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1877.554122649973</v>
+        <v>2229.614760186553</v>
       </c>
       <c r="AB2" t="n">
-        <v>2568.952382451606</v>
+        <v>3050.657278548477</v>
       </c>
       <c r="AC2" t="n">
-        <v>2323.775172617738</v>
+        <v>2759.506829508076</v>
       </c>
       <c r="AD2" t="n">
-        <v>1877554.122649973</v>
+        <v>2229614.760186553</v>
       </c>
       <c r="AE2" t="n">
-        <v>2568952.382451606</v>
+        <v>3050657.278548477</v>
       </c>
       <c r="AF2" t="n">
         <v>2.795919776200889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.44675925925925</v>
       </c>
       <c r="AH2" t="n">
-        <v>2323775.172617738</v>
+        <v>2759506.829508076</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1406.87745585004</v>
+        <v>1692.334064880956</v>
       </c>
       <c r="AB3" t="n">
-        <v>1924.951802146904</v>
+        <v>2315.526128079792</v>
       </c>
       <c r="AC3" t="n">
-        <v>1741.237103836825</v>
+        <v>2094.535564277187</v>
       </c>
       <c r="AD3" t="n">
-        <v>1406877.45585004</v>
+        <v>1692334.064880955</v>
       </c>
       <c r="AE3" t="n">
-        <v>1924951.802146904</v>
+        <v>2315526.128079792</v>
       </c>
       <c r="AF3" t="n">
         <v>3.426037251689126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.31018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1741237.103836825</v>
+        <v>2094535.564277187</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1277.566215932846</v>
+        <v>1544.084826211835</v>
       </c>
       <c r="AB4" t="n">
-        <v>1748.022458882919</v>
+        <v>2112.684979437881</v>
       </c>
       <c r="AC4" t="n">
-        <v>1581.193648772062</v>
+        <v>1911.053290172321</v>
       </c>
       <c r="AD4" t="n">
-        <v>1277566.215932846</v>
+        <v>1544084.826211835</v>
       </c>
       <c r="AE4" t="n">
-        <v>1748022.458882919</v>
+        <v>2112684.979437881</v>
       </c>
       <c r="AF4" t="n">
         <v>3.652817411314309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1581193.648772062</v>
+        <v>1911053.290172321</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1212.411986109104</v>
+        <v>1478.862265550532</v>
       </c>
       <c r="AB5" t="n">
-        <v>1658.875567236322</v>
+        <v>2023.444594524788</v>
       </c>
       <c r="AC5" t="n">
-        <v>1500.554811345768</v>
+        <v>1830.329882345666</v>
       </c>
       <c r="AD5" t="n">
-        <v>1212411.986109104</v>
+        <v>1478862.265550532</v>
       </c>
       <c r="AE5" t="n">
-        <v>1658875.567236322</v>
+        <v>2023444.594524788</v>
       </c>
       <c r="AF5" t="n">
         <v>3.772248058544618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.95138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1500554.811345768</v>
+        <v>1830329.882345666</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1172.794307838208</v>
+        <v>1429.759010709211</v>
       </c>
       <c r="AB6" t="n">
-        <v>1604.668912017471</v>
+        <v>1956.259354968178</v>
       </c>
       <c r="AC6" t="n">
-        <v>1451.521563221486</v>
+        <v>1769.556707757263</v>
       </c>
       <c r="AD6" t="n">
-        <v>1172794.307838209</v>
+        <v>1429759.010709211</v>
       </c>
       <c r="AE6" t="n">
-        <v>1604668.912017471</v>
+        <v>1956259.354968178</v>
       </c>
       <c r="AF6" t="n">
         <v>3.846115568681284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.93287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1451521.563221486</v>
+        <v>1769556.707757263</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1151.427105382267</v>
+        <v>1398.838911875139</v>
       </c>
       <c r="AB7" t="n">
-        <v>1575.433362962808</v>
+        <v>1913.953111644913</v>
       </c>
       <c r="AC7" t="n">
-        <v>1425.076213936249</v>
+        <v>1731.288112919586</v>
       </c>
       <c r="AD7" t="n">
-        <v>1151427.105382266</v>
+        <v>1398838.911875139</v>
       </c>
       <c r="AE7" t="n">
-        <v>1575433.362962808</v>
+        <v>1913953.111644913</v>
       </c>
       <c r="AF7" t="n">
         <v>3.892886819258471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.30787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1425076.213936249</v>
+        <v>1731288.112919586</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1122.62196728974</v>
+        <v>1370.101093590317</v>
       </c>
       <c r="AB8" t="n">
-        <v>1536.020902231609</v>
+        <v>1874.632760844556</v>
       </c>
       <c r="AC8" t="n">
-        <v>1389.4252231415</v>
+        <v>1695.720441213155</v>
       </c>
       <c r="AD8" t="n">
-        <v>1122621.96728974</v>
+        <v>1370101.093590317</v>
       </c>
       <c r="AE8" t="n">
-        <v>1536020.902231609</v>
+        <v>1874632.760844556</v>
       </c>
       <c r="AF8" t="n">
         <v>3.932409388934397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.79861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1389425.2231415</v>
+        <v>1695720.441213155</v>
       </c>
     </row>
     <row r="9">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1108.081445967883</v>
+        <v>1355.56057226846</v>
       </c>
       <c r="AB9" t="n">
-        <v>1516.125919476517</v>
+        <v>1854.737778089464</v>
       </c>
       <c r="AC9" t="n">
-        <v>1371.42898961777</v>
+        <v>1677.724207689426</v>
       </c>
       <c r="AD9" t="n">
-        <v>1108081.445967883</v>
+        <v>1355560.57226846</v>
       </c>
       <c r="AE9" t="n">
-        <v>1516125.919476517</v>
+        <v>1854737.778089464</v>
       </c>
       <c r="AF9" t="n">
         <v>3.953292493435651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.53240740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1371428.98961777</v>
+        <v>1677724.207689426</v>
       </c>
     </row>
     <row r="10">
@@ -25510,28 +25510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1092.365682492065</v>
+        <v>1339.743323566157</v>
       </c>
       <c r="AB10" t="n">
-        <v>1494.622918558351</v>
+        <v>1833.095920607209</v>
       </c>
       <c r="AC10" t="n">
-        <v>1351.978204927583</v>
+        <v>1658.147818710739</v>
       </c>
       <c r="AD10" t="n">
-        <v>1092365.682492065</v>
+        <v>1339743.323566157</v>
       </c>
       <c r="AE10" t="n">
-        <v>1494622.918558351</v>
+        <v>1833095.920607209</v>
       </c>
       <c r="AF10" t="n">
         <v>3.979353227152091e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.19675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1351978.204927583</v>
+        <v>1658147.818710739</v>
       </c>
     </row>
     <row r="11">
@@ -25616,28 +25616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1080.668537128065</v>
+        <v>1318.594767050512</v>
       </c>
       <c r="AB11" t="n">
-        <v>1478.618368229693</v>
+        <v>1804.159532574039</v>
       </c>
       <c r="AC11" t="n">
-        <v>1337.501106419764</v>
+        <v>1631.973078938979</v>
       </c>
       <c r="AD11" t="n">
-        <v>1080668.537128065</v>
+        <v>1318594.767050512</v>
       </c>
       <c r="AE11" t="n">
-        <v>1478618.368229693</v>
+        <v>1804159.532574039</v>
       </c>
       <c r="AF11" t="n">
         <v>3.992297300190059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1337501.106419764</v>
+        <v>1631973.078938979</v>
       </c>
     </row>
     <row r="12">
@@ -25722,28 +25722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1070.100045044059</v>
+        <v>1317.545005925855</v>
       </c>
       <c r="AB12" t="n">
-        <v>1464.158091111392</v>
+        <v>1802.723203091091</v>
       </c>
       <c r="AC12" t="n">
-        <v>1324.420897854507</v>
+        <v>1630.673830725983</v>
       </c>
       <c r="AD12" t="n">
-        <v>1070100.045044059</v>
+        <v>1317545.005925855</v>
       </c>
       <c r="AE12" t="n">
-        <v>1464158.091111392</v>
+        <v>1802723.203091091</v>
       </c>
       <c r="AF12" t="n">
         <v>3.995576465359677e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH12" t="n">
-        <v>1324420.897854507</v>
+        <v>1630673.830725983</v>
       </c>
     </row>
   </sheetData>
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1495.944100650115</v>
+        <v>1815.473338927764</v>
       </c>
       <c r="AB2" t="n">
-        <v>2046.816714905417</v>
+        <v>2484.010715351998</v>
       </c>
       <c r="AC2" t="n">
-        <v>1851.471400360144</v>
+        <v>2246.940219009738</v>
       </c>
       <c r="AD2" t="n">
-        <v>1495944.100650115</v>
+        <v>1815473.338927764</v>
       </c>
       <c r="AE2" t="n">
-        <v>2046816.714905417</v>
+        <v>2484010.715351998</v>
       </c>
       <c r="AF2" t="n">
         <v>3.497658327775259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1851471.400360144</v>
+        <v>2246940.219009737</v>
       </c>
     </row>
     <row r="3">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1195.738100672428</v>
+        <v>1468.296837525624</v>
       </c>
       <c r="AB3" t="n">
-        <v>1636.061621581952</v>
+        <v>2008.988509787322</v>
       </c>
       <c r="AC3" t="n">
-        <v>1479.918196645077</v>
+        <v>1817.253466046302</v>
       </c>
       <c r="AD3" t="n">
-        <v>1195738.100672428</v>
+        <v>1468296.837525624</v>
       </c>
       <c r="AE3" t="n">
-        <v>1636061.621581952</v>
+        <v>2008988.509787322</v>
       </c>
       <c r="AF3" t="n">
         <v>4.089922976444154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.53240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1479918.196645077</v>
+        <v>1817253.466046302</v>
       </c>
     </row>
     <row r="4">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1102.616128044157</v>
+        <v>1365.739766109925</v>
       </c>
       <c r="AB4" t="n">
-        <v>1508.648030380464</v>
+        <v>1868.665400177694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1364.664779761761</v>
+        <v>1690.322597073096</v>
       </c>
       <c r="AD4" t="n">
-        <v>1102616.128044157</v>
+        <v>1365739.766109925</v>
       </c>
       <c r="AE4" t="n">
-        <v>1508648.030380464</v>
+        <v>1868665.400177694</v>
       </c>
       <c r="AF4" t="n">
         <v>4.300689123783583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1364664.779761761</v>
+        <v>1690322.597073096</v>
       </c>
     </row>
     <row r="5">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1057.532847538864</v>
+        <v>1311.289717654766</v>
       </c>
       <c r="AB5" t="n">
-        <v>1446.963097059158</v>
+        <v>1794.164441714744</v>
       </c>
       <c r="AC5" t="n">
-        <v>1308.866969901293</v>
+        <v>1622.931905523098</v>
       </c>
       <c r="AD5" t="n">
-        <v>1057532.847538864</v>
+        <v>1311289.717654766</v>
       </c>
       <c r="AE5" t="n">
-        <v>1446963.097059158</v>
+        <v>1794164.441714744</v>
       </c>
       <c r="AF5" t="n">
         <v>4.408427126473849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.52777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1308866.969901293</v>
+        <v>1622931.905523098</v>
       </c>
     </row>
     <row r="6">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1022.582743244516</v>
+        <v>1266.972845410552</v>
       </c>
       <c r="AB6" t="n">
-        <v>1399.142822473852</v>
+        <v>1733.528141987794</v>
       </c>
       <c r="AC6" t="n">
-        <v>1265.610595206231</v>
+        <v>1568.082649138506</v>
       </c>
       <c r="AD6" t="n">
-        <v>1022582.743244516</v>
+        <v>1266972.845410552</v>
       </c>
       <c r="AE6" t="n">
-        <v>1399142.822473852</v>
+        <v>1733528.141987794</v>
       </c>
       <c r="AF6" t="n">
         <v>4.471813965943715e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.78703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1265610.595206231</v>
+        <v>1568082.649138506</v>
       </c>
     </row>
     <row r="7">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1002.566516797553</v>
+        <v>1246.855133737104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1371.755738395529</v>
+        <v>1706.002201345382</v>
       </c>
       <c r="AC7" t="n">
-        <v>1240.83729599433</v>
+        <v>1543.183745638106</v>
       </c>
       <c r="AD7" t="n">
-        <v>1002566.516797553</v>
+        <v>1246855.133737104</v>
       </c>
       <c r="AE7" t="n">
-        <v>1371755.738395529</v>
+        <v>1706002.201345382</v>
       </c>
       <c r="AF7" t="n">
         <v>4.512828979718333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.32407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1240837.29599433</v>
+        <v>1543183.745638106</v>
       </c>
     </row>
     <row r="8">
@@ -26655,28 +26655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>996.9979601554032</v>
+        <v>1241.286577094955</v>
       </c>
       <c r="AB8" t="n">
-        <v>1364.136593530359</v>
+        <v>1698.383056480212</v>
       </c>
       <c r="AC8" t="n">
-        <v>1233.945311621555</v>
+        <v>1536.29176126533</v>
       </c>
       <c r="AD8" t="n">
-        <v>996997.9601554032</v>
+        <v>1241286.577094954</v>
       </c>
       <c r="AE8" t="n">
-        <v>1364136.593530359</v>
+        <v>1698383.056480212</v>
       </c>
       <c r="AF8" t="n">
         <v>4.523622404395864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.20833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1233945.311621554</v>
+        <v>1536291.76126533</v>
       </c>
     </row>
   </sheetData>
@@ -50125,28 +50125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1258.252415579834</v>
+        <v>1555.940876688365</v>
       </c>
       <c r="AB2" t="n">
-        <v>1721.596465175193</v>
+        <v>2128.906950751903</v>
       </c>
       <c r="AC2" t="n">
-        <v>1557.289714814686</v>
+        <v>1925.727059311812</v>
       </c>
       <c r="AD2" t="n">
-        <v>1258252.415579834</v>
+        <v>1555940.876688365</v>
       </c>
       <c r="AE2" t="n">
-        <v>1721596.465175193</v>
+        <v>2128906.950751903</v>
       </c>
       <c r="AF2" t="n">
         <v>4.197557415296068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1557289.714814686</v>
+        <v>1925727.059311812</v>
       </c>
     </row>
     <row r="3">
@@ -50231,28 +50231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1046.583946554281</v>
+        <v>1307.082703410984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1431.982327700632</v>
+        <v>1788.408219226033</v>
       </c>
       <c r="AC3" t="n">
-        <v>1295.315944144703</v>
+        <v>1617.7250488298</v>
       </c>
       <c r="AD3" t="n">
-        <v>1046583.946554281</v>
+        <v>1307082.703410984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1431982.327700632</v>
+        <v>1788408.219226033</v>
       </c>
       <c r="AF3" t="n">
         <v>4.75161912599933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.68055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1295315.944144703</v>
+        <v>1617725.0488298</v>
       </c>
     </row>
     <row r="4">
@@ -50337,28 +50337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>977.6885157531714</v>
+        <v>1228.881305192222</v>
       </c>
       <c r="AB4" t="n">
-        <v>1337.71655982666</v>
+        <v>1681.409616180922</v>
       </c>
       <c r="AC4" t="n">
-        <v>1210.046768853787</v>
+        <v>1520.938242285832</v>
       </c>
       <c r="AD4" t="n">
-        <v>977688.5157531714</v>
+        <v>1228881.305192222</v>
       </c>
       <c r="AE4" t="n">
-        <v>1337716.55982666</v>
+        <v>1681409.616180922</v>
       </c>
       <c r="AF4" t="n">
         <v>4.942256906332791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.6087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1210046.768853787</v>
+        <v>1520938.242285832</v>
       </c>
     </row>
     <row r="5">
@@ -50443,28 +50443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.5836868923889</v>
+        <v>1178.504674332568</v>
       </c>
       <c r="AB5" t="n">
-        <v>1281.475119562273</v>
+        <v>1612.482087378643</v>
       </c>
       <c r="AC5" t="n">
-        <v>1159.172932712875</v>
+        <v>1458.589060092048</v>
       </c>
       <c r="AD5" t="n">
-        <v>936583.6868923889</v>
+        <v>1178504.674332568</v>
       </c>
       <c r="AE5" t="n">
-        <v>1281475.119562273</v>
+        <v>1612482.087378643</v>
       </c>
       <c r="AF5" t="n">
         <v>5.04187341120068e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.59027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1159172.932712875</v>
+        <v>1458589.060092048</v>
       </c>
     </row>
     <row r="6">
@@ -50549,28 +50549,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>935.6802654950216</v>
+        <v>1177.601252935201</v>
       </c>
       <c r="AB6" t="n">
-        <v>1280.239018550256</v>
+        <v>1611.245986366626</v>
       </c>
       <c r="AC6" t="n">
-        <v>1158.054803446566</v>
+        <v>1457.47093082574</v>
       </c>
       <c r="AD6" t="n">
-        <v>935680.2654950216</v>
+        <v>1177601.252935201</v>
       </c>
       <c r="AE6" t="n">
-        <v>1280239.018550256</v>
+        <v>1611245.986366626</v>
       </c>
       <c r="AF6" t="n">
         <v>5.048264735628044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.53240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1158054.803446566</v>
+        <v>1457470.93082574</v>
       </c>
     </row>
   </sheetData>
@@ -50846,28 +50846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>883.8945942909131</v>
+        <v>1139.054976306938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1209.383578586222</v>
+        <v>1558.50527014213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1093.961707226465</v>
+        <v>1409.763714535649</v>
       </c>
       <c r="AD2" t="n">
-        <v>883894.5942909131</v>
+        <v>1139054.976306938</v>
       </c>
       <c r="AE2" t="n">
-        <v>1209383.578586222</v>
+        <v>1558505.27014213</v>
       </c>
       <c r="AF2" t="n">
         <v>6.208666598649795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1093961.707226465</v>
+        <v>1409763.714535649</v>
       </c>
     </row>
     <row r="3">
@@ -50952,28 +50952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>829.320877441315</v>
+        <v>1075.363544005151</v>
       </c>
       <c r="AB3" t="n">
-        <v>1134.713411570136</v>
+        <v>1471.359842599143</v>
       </c>
       <c r="AC3" t="n">
-        <v>1026.417956150157</v>
+        <v>1330.935324287989</v>
       </c>
       <c r="AD3" t="n">
-        <v>829320.877441315</v>
+        <v>1075363.54400515</v>
       </c>
       <c r="AE3" t="n">
-        <v>1134713.411570136</v>
+        <v>1471359.842599143</v>
       </c>
       <c r="AF3" t="n">
         <v>6.464008943270321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.18750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1026417.956150157</v>
+        <v>1330935.324287989</v>
       </c>
     </row>
   </sheetData>
@@ -51249,28 +51249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2299.693889330658</v>
+        <v>2694.029235955221</v>
       </c>
       <c r="AB2" t="n">
-        <v>3146.542634716426</v>
+        <v>3686.089652815869</v>
       </c>
       <c r="AC2" t="n">
-        <v>2846.241021859296</v>
+        <v>3334.294429810303</v>
       </c>
       <c r="AD2" t="n">
-        <v>2299693.889330658</v>
+        <v>2694029.235955221</v>
       </c>
       <c r="AE2" t="n">
-        <v>3146542.634716426</v>
+        <v>3686089.652815869</v>
       </c>
       <c r="AF2" t="n">
         <v>2.306564206399465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.5763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2846241.021859296</v>
+        <v>3334294.429810303</v>
       </c>
     </row>
     <row r="3">
@@ -51355,28 +51355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1617.650163790464</v>
+        <v>1915.782169522711</v>
       </c>
       <c r="AB3" t="n">
-        <v>2213.340319786602</v>
+        <v>2621.257682685288</v>
       </c>
       <c r="AC3" t="n">
-        <v>2002.102226108817</v>
+        <v>2371.088528408067</v>
       </c>
       <c r="AD3" t="n">
-        <v>1617650.163790464</v>
+        <v>1915782.169522712</v>
       </c>
       <c r="AE3" t="n">
-        <v>2213340.319786602</v>
+        <v>2621257.682685288</v>
       </c>
       <c r="AF3" t="n">
         <v>2.96095197412135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2002102.226108817</v>
+        <v>2371088.528408067</v>
       </c>
     </row>
     <row r="4">
@@ -51461,28 +51461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1442.848720158536</v>
+        <v>1721.807175314054</v>
       </c>
       <c r="AB4" t="n">
-        <v>1974.16927291397</v>
+        <v>2355.852538036222</v>
       </c>
       <c r="AC4" t="n">
-        <v>1785.757328271036</v>
+        <v>2131.013278265847</v>
       </c>
       <c r="AD4" t="n">
-        <v>1442848.720158536</v>
+        <v>1721807.175314054</v>
       </c>
       <c r="AE4" t="n">
-        <v>1974169.27291397</v>
+        <v>2355852.538036222</v>
       </c>
       <c r="AF4" t="n">
         <v>3.20570145508553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.53935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1785757.328271036</v>
+        <v>2131013.278265847</v>
       </c>
     </row>
     <row r="5">
@@ -51567,28 +51567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1364.073308713007</v>
+        <v>1633.309843449823</v>
       </c>
       <c r="AB5" t="n">
-        <v>1866.38527964832</v>
+        <v>2234.766584352844</v>
       </c>
       <c r="AC5" t="n">
-        <v>1688.260088046876</v>
+        <v>2021.483598056809</v>
       </c>
       <c r="AD5" t="n">
-        <v>1364073.308713007</v>
+        <v>1633309.843449823</v>
       </c>
       <c r="AE5" t="n">
-        <v>1866385.27964832</v>
+        <v>2234766.584352844</v>
       </c>
       <c r="AF5" t="n">
         <v>3.334418072713524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.35185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1688260.088046876</v>
+        <v>2021483.598056809</v>
       </c>
     </row>
     <row r="6">
@@ -51673,28 +51673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1318.975167955868</v>
+        <v>1578.625432919247</v>
       </c>
       <c r="AB6" t="n">
-        <v>1804.68001387485</v>
+        <v>2159.944961358984</v>
       </c>
       <c r="AC6" t="n">
-        <v>1632.443886234941</v>
+        <v>1953.802845748675</v>
       </c>
       <c r="AD6" t="n">
-        <v>1318975.167955868</v>
+        <v>1578625.432919247</v>
       </c>
       <c r="AE6" t="n">
-        <v>1804680.01387485</v>
+        <v>2159944.961358984</v>
       </c>
       <c r="AF6" t="n">
         <v>3.411303546260173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1632443.886234941</v>
+        <v>1953802.845748675</v>
       </c>
     </row>
     <row r="7">
@@ -51779,28 +51779,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1282.975166277935</v>
+        <v>1542.591265822533</v>
       </c>
       <c r="AB7" t="n">
-        <v>1755.423223371118</v>
+        <v>2110.641424222004</v>
       </c>
       <c r="AC7" t="n">
-        <v>1587.888094684546</v>
+        <v>1909.2047689981</v>
       </c>
       <c r="AD7" t="n">
-        <v>1282975.166277935</v>
+        <v>1542591.265822533</v>
       </c>
       <c r="AE7" t="n">
-        <v>1755423.223371118</v>
+        <v>2110641.424222005</v>
       </c>
       <c r="AF7" t="n">
         <v>3.467519197997947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.26851851851851</v>
       </c>
       <c r="AH7" t="n">
-        <v>1587888.094684546</v>
+        <v>1909204.7689981</v>
       </c>
     </row>
     <row r="8">
@@ -51885,28 +51885,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1254.759316434552</v>
+        <v>1514.442735786855</v>
       </c>
       <c r="AB8" t="n">
-        <v>1716.81705281996</v>
+        <v>2072.127363601688</v>
       </c>
       <c r="AC8" t="n">
-        <v>1552.966442866689</v>
+        <v>1874.366436268562</v>
       </c>
       <c r="AD8" t="n">
-        <v>1254759.316434552</v>
+        <v>1514442.735786855</v>
       </c>
       <c r="AE8" t="n">
-        <v>1716817.05281996</v>
+        <v>2072127.363601688</v>
       </c>
       <c r="AF8" t="n">
         <v>3.502908438367688e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.73611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1552966.442866689</v>
+        <v>1874366.436268562</v>
       </c>
     </row>
     <row r="9">
@@ -51991,28 +51991,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1237.386738662282</v>
+        <v>1487.416568433444</v>
       </c>
       <c r="AB9" t="n">
-        <v>1693.047125487901</v>
+        <v>2035.148969118397</v>
       </c>
       <c r="AC9" t="n">
-        <v>1531.465084037899</v>
+        <v>1840.917207855254</v>
       </c>
       <c r="AD9" t="n">
-        <v>1237386.738662282</v>
+        <v>1487416.568433444</v>
       </c>
       <c r="AE9" t="n">
-        <v>1693047.125487901</v>
+        <v>2035148.969118397</v>
       </c>
       <c r="AF9" t="n">
         <v>3.536262014468372e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>1531465.0840379</v>
+        <v>1840917.207855254</v>
       </c>
     </row>
     <row r="10">
@@ -52097,28 +52097,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1214.169628865405</v>
+        <v>1473.818882798928</v>
       </c>
       <c r="AB10" t="n">
-        <v>1661.280451597219</v>
+        <v>2016.544015745699</v>
       </c>
       <c r="AC10" t="n">
-        <v>1502.730176918537</v>
+        <v>1824.087885120231</v>
       </c>
       <c r="AD10" t="n">
-        <v>1214169.628865405</v>
+        <v>1473818.882798928</v>
       </c>
       <c r="AE10" t="n">
-        <v>1661280.451597219</v>
+        <v>2016544.015745699</v>
       </c>
       <c r="AF10" t="n">
         <v>3.556931836277247e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.94907407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1502730.176918537</v>
+        <v>1824087.885120231</v>
       </c>
     </row>
     <row r="11">
@@ -52203,28 +52203,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1200.708219514805</v>
+        <v>1450.805369093672</v>
       </c>
       <c r="AB11" t="n">
-        <v>1642.861957448261</v>
+        <v>1985.055911009599</v>
       </c>
       <c r="AC11" t="n">
-        <v>1486.069518000637</v>
+        <v>1795.604960906311</v>
       </c>
       <c r="AD11" t="n">
-        <v>1200708.219514805</v>
+        <v>1450805.369093672</v>
       </c>
       <c r="AE11" t="n">
-        <v>1642861.957448261</v>
+        <v>1985055.911009599</v>
       </c>
       <c r="AF11" t="n">
         <v>3.576818710290331e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.6712962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1486069.518000637</v>
+        <v>1795604.960906311</v>
       </c>
     </row>
     <row r="12">
@@ -52309,28 +52309,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1189.719178973063</v>
+        <v>1439.714843325444</v>
       </c>
       <c r="AB12" t="n">
-        <v>1627.826267376795</v>
+        <v>1969.881364374043</v>
       </c>
       <c r="AC12" t="n">
-        <v>1472.468813086868</v>
+        <v>1781.878651704043</v>
       </c>
       <c r="AD12" t="n">
-        <v>1189719.178973062</v>
+        <v>1439714.843325444</v>
       </c>
       <c r="AE12" t="n">
-        <v>1627826.267376795</v>
+        <v>1969881.364374043</v>
       </c>
       <c r="AF12" t="n">
         <v>3.591538128851197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.46296296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>1472468.813086868</v>
+        <v>1781878.651704043</v>
       </c>
     </row>
     <row r="13">
@@ -52415,28 +52415,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1179.434080050755</v>
+        <v>1429.429744403136</v>
       </c>
       <c r="AB13" t="n">
-        <v>1613.753741284753</v>
+        <v>1955.808838282002</v>
       </c>
       <c r="AC13" t="n">
-        <v>1459.739349134137</v>
+        <v>1769.149187751312</v>
       </c>
       <c r="AD13" t="n">
-        <v>1179434.080050755</v>
+        <v>1429429.744403136</v>
       </c>
       <c r="AE13" t="n">
-        <v>1613753.741284753</v>
+        <v>1955808.838282002</v>
       </c>
       <c r="AF13" t="n">
         <v>3.599367606809104e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.34722222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1459739.349134136</v>
+        <v>1769149.187751312</v>
       </c>
     </row>
     <row r="14">
@@ -52521,28 +52521,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1168.771335855513</v>
+        <v>1409.214895853238</v>
       </c>
       <c r="AB14" t="n">
-        <v>1599.164504269749</v>
+        <v>1928.149990679855</v>
       </c>
       <c r="AC14" t="n">
-        <v>1446.542488423721</v>
+        <v>1744.130061744878</v>
       </c>
       <c r="AD14" t="n">
-        <v>1168771.335855513</v>
+        <v>1409214.895853238</v>
       </c>
       <c r="AE14" t="n">
-        <v>1599164.504269749</v>
+        <v>1928149.990679855</v>
       </c>
       <c r="AF14" t="n">
         <v>3.615026562724919e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.13888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1446542.488423721</v>
+        <v>1744130.061744878</v>
       </c>
     </row>
     <row r="15">
@@ -52627,28 +52627,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1147.288135568924</v>
+        <v>1397.351119729009</v>
       </c>
       <c r="AB15" t="n">
-        <v>1569.770241865732</v>
+        <v>1911.917448793822</v>
       </c>
       <c r="AC15" t="n">
-        <v>1419.953573168438</v>
+        <v>1729.446730873932</v>
       </c>
       <c r="AD15" t="n">
-        <v>1147288.135568924</v>
+        <v>1397351.119729009</v>
       </c>
       <c r="AE15" t="n">
-        <v>1569770.241865732</v>
+        <v>1911917.448793822</v>
       </c>
       <c r="AF15" t="n">
         <v>3.625831242306831e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH15" t="n">
-        <v>1419953.573168437</v>
+        <v>1729446.730873932</v>
       </c>
     </row>
     <row r="16">
@@ -52733,28 +52733,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1143.622087165682</v>
+        <v>1393.685071325768</v>
       </c>
       <c r="AB16" t="n">
-        <v>1564.754192705775</v>
+        <v>1906.901399633866</v>
       </c>
       <c r="AC16" t="n">
-        <v>1415.416248700238</v>
+        <v>1724.909406405732</v>
       </c>
       <c r="AD16" t="n">
-        <v>1143622.087165682</v>
+        <v>1393685.071325768</v>
       </c>
       <c r="AE16" t="n">
-        <v>1564754.192705775</v>
+        <v>1906901.399633866</v>
       </c>
       <c r="AF16" t="n">
         <v>3.629745981285784e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>49.93055555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1415416.248700238</v>
+        <v>1724909.406405733</v>
       </c>
     </row>
     <row r="17">
@@ -52839,28 +52839,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1146.691681554718</v>
+        <v>1396.754665714803</v>
       </c>
       <c r="AB17" t="n">
-        <v>1568.954147169801</v>
+        <v>1911.101354097891</v>
       </c>
       <c r="AC17" t="n">
-        <v>1419.21536540489</v>
+        <v>1728.708523110384</v>
       </c>
       <c r="AD17" t="n">
-        <v>1146691.681554718</v>
+        <v>1396754.665714803</v>
       </c>
       <c r="AE17" t="n">
-        <v>1568954.1471698</v>
+        <v>1911101.354097891</v>
       </c>
       <c r="AF17" t="n">
         <v>3.628649854371677e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.94212962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>1419215.36540489</v>
+        <v>1728708.523110384</v>
       </c>
     </row>
   </sheetData>
@@ -53136,28 +53136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2985.596521396218</v>
+        <v>3433.399315034813</v>
       </c>
       <c r="AB2" t="n">
-        <v>4085.02487579707</v>
+        <v>4697.728413718401</v>
       </c>
       <c r="AC2" t="n">
-        <v>3695.155835019265</v>
+        <v>4249.383807216178</v>
       </c>
       <c r="AD2" t="n">
-        <v>2985596.521396218</v>
+        <v>3433399.315034813</v>
       </c>
       <c r="AE2" t="n">
-        <v>4085024.87579707</v>
+        <v>4697728.413718401</v>
       </c>
       <c r="AF2" t="n">
         <v>1.825977504478798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3695155.835019265</v>
+        <v>4249383.807216178</v>
       </c>
     </row>
     <row r="3">
@@ -53242,28 +53242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1914.720547994361</v>
+        <v>2245.585910890954</v>
       </c>
       <c r="AB3" t="n">
-        <v>2619.805125274761</v>
+        <v>3072.509711539681</v>
       </c>
       <c r="AC3" t="n">
-        <v>2369.774601038125</v>
+        <v>2779.273696964682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1914720.547994361</v>
+        <v>2245585.910890954</v>
       </c>
       <c r="AE3" t="n">
-        <v>2619805.125274762</v>
+        <v>3072509.711539681</v>
       </c>
       <c r="AF3" t="n">
         <v>2.501327417603734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.47453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>2369774.601038125</v>
+        <v>2779273.696964682</v>
       </c>
     </row>
     <row r="4">
@@ -53348,28 +53348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1671.561199039437</v>
+        <v>1963.549577601749</v>
       </c>
       <c r="AB4" t="n">
-        <v>2287.103776601264</v>
+        <v>2686.615157768343</v>
       </c>
       <c r="AC4" t="n">
-        <v>2068.82580213275</v>
+        <v>2430.208377798987</v>
       </c>
       <c r="AD4" t="n">
-        <v>1671561.199039437</v>
+        <v>1963549.577601749</v>
       </c>
       <c r="AE4" t="n">
-        <v>2287103.776601264</v>
+        <v>2686615.157768343</v>
       </c>
       <c r="AF4" t="n">
         <v>2.762241987015505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.28240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>2068825.80213275</v>
+        <v>2430208.377798988</v>
       </c>
     </row>
     <row r="5">
@@ -53454,28 +53454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1559.210375067753</v>
+        <v>1841.428259418326</v>
       </c>
       <c r="AB5" t="n">
-        <v>2133.38042267467</v>
+        <v>2519.523382617462</v>
       </c>
       <c r="AC5" t="n">
-        <v>1929.773589352828</v>
+        <v>2279.063607153728</v>
       </c>
       <c r="AD5" t="n">
-        <v>1559210.375067753</v>
+        <v>1841428.259418325</v>
       </c>
       <c r="AE5" t="n">
-        <v>2133380.42267467</v>
+        <v>2519523.382617462</v>
       </c>
       <c r="AF5" t="n">
         <v>2.901471887395757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.44675925925927</v>
       </c>
       <c r="AH5" t="n">
-        <v>1929773.589352828</v>
+        <v>2279063.607153728</v>
       </c>
     </row>
     <row r="6">
@@ -53560,28 +53560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1490.900861658336</v>
+        <v>1773.151900397832</v>
       </c>
       <c r="AB6" t="n">
-        <v>2039.916332824863</v>
+        <v>2426.104656065249</v>
       </c>
       <c r="AC6" t="n">
-        <v>1845.229581060613</v>
+        <v>2194.560632749652</v>
       </c>
       <c r="AD6" t="n">
-        <v>1490900.861658336</v>
+        <v>1773151.900397832</v>
       </c>
       <c r="AE6" t="n">
-        <v>2039916.332824863</v>
+        <v>2426104.656065249</v>
       </c>
       <c r="AF6" t="n">
         <v>2.989339537940609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.78009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1845229.581060613</v>
+        <v>2194560.632749652</v>
       </c>
     </row>
     <row r="7">
@@ -53666,28 +53666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1450.320302566017</v>
+        <v>1722.869177931333</v>
       </c>
       <c r="AB7" t="n">
-        <v>1984.392221586837</v>
+        <v>2357.305616869431</v>
       </c>
       <c r="AC7" t="n">
-        <v>1795.004613070563</v>
+        <v>2132.327677294625</v>
       </c>
       <c r="AD7" t="n">
-        <v>1450320.302566017</v>
+        <v>1722869.177931333</v>
       </c>
       <c r="AE7" t="n">
-        <v>1984392.221586837</v>
+        <v>2357305.616869431</v>
       </c>
       <c r="AF7" t="n">
         <v>3.045512577016788e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.77314814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1795004.613070563</v>
+        <v>2132327.677294625</v>
       </c>
     </row>
     <row r="8">
@@ -53772,28 +53772,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1425.87284846778</v>
+        <v>1688.652240651213</v>
       </c>
       <c r="AB8" t="n">
-        <v>1950.942136344074</v>
+        <v>2310.488493738036</v>
       </c>
       <c r="AC8" t="n">
-        <v>1764.74695701588</v>
+        <v>2089.978714686645</v>
       </c>
       <c r="AD8" t="n">
-        <v>1425872.84846778</v>
+        <v>1688652.240651213</v>
       </c>
       <c r="AE8" t="n">
-        <v>1950942.136344074</v>
+        <v>2310488.493738036</v>
       </c>
       <c r="AF8" t="n">
         <v>3.089234161587416e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.00925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1764746.95701588</v>
+        <v>2089978.714686645</v>
       </c>
     </row>
     <row r="9">
@@ -53878,28 +53878,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1395.587389113752</v>
+        <v>1658.332615878404</v>
       </c>
       <c r="AB9" t="n">
-        <v>1909.504234755724</v>
+        <v>2269.003845516439</v>
       </c>
       <c r="AC9" t="n">
-        <v>1727.263830596663</v>
+        <v>2052.453303067247</v>
       </c>
       <c r="AD9" t="n">
-        <v>1395587.389113752</v>
+        <v>1658332.615878404</v>
       </c>
       <c r="AE9" t="n">
-        <v>1909504.234755724</v>
+        <v>2269003.845516439</v>
       </c>
       <c r="AF9" t="n">
         <v>3.125739562296871e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.39583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1727263.830596663</v>
+        <v>2052453.303067247</v>
       </c>
     </row>
     <row r="10">
@@ -53984,28 +53984,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1369.774653699872</v>
+        <v>1632.587200272229</v>
       </c>
       <c r="AB10" t="n">
-        <v>1874.186111384938</v>
+        <v>2233.777832076494</v>
       </c>
       <c r="AC10" t="n">
-        <v>1695.316419351087</v>
+        <v>2020.58921090999</v>
       </c>
       <c r="AD10" t="n">
-        <v>1369774.653699872</v>
+        <v>1632587.200272229</v>
       </c>
       <c r="AE10" t="n">
-        <v>1874186.111384938</v>
+        <v>2233777.832076494</v>
       </c>
       <c r="AF10" t="n">
         <v>3.152340396922367e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.95601851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>1695316.419351087</v>
+        <v>2020589.21090999</v>
       </c>
     </row>
     <row r="11">
@@ -54090,28 +54090,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1357.300158247115</v>
+        <v>1620.112704819471</v>
       </c>
       <c r="AB11" t="n">
-        <v>1857.117956370576</v>
+        <v>2216.709677062132</v>
       </c>
       <c r="AC11" t="n">
-        <v>1679.87722509599</v>
+        <v>2005.150016654893</v>
       </c>
       <c r="AD11" t="n">
-        <v>1357300.158247115</v>
+        <v>1620112.704819471</v>
       </c>
       <c r="AE11" t="n">
-        <v>1857117.956370576</v>
+        <v>2216709.677062132</v>
       </c>
       <c r="AF11" t="n">
         <v>3.17158355388549e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.63194444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>1679877.22509599</v>
+        <v>2005150.016654893</v>
       </c>
     </row>
     <row r="12">
@@ -54196,28 +54196,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1345.511974433005</v>
+        <v>1598.555037823478</v>
       </c>
       <c r="AB12" t="n">
-        <v>1840.988843218145</v>
+        <v>2187.213526021068</v>
       </c>
       <c r="AC12" t="n">
-        <v>1665.287451865474</v>
+        <v>1978.468936871081</v>
       </c>
       <c r="AD12" t="n">
-        <v>1345511.974433005</v>
+        <v>1598555.037823478</v>
       </c>
       <c r="AE12" t="n">
-        <v>1840988.843218145</v>
+        <v>2187213.526021068</v>
       </c>
       <c r="AF12" t="n">
         <v>3.189270279035421e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1665287.451865474</v>
+        <v>1978468.936871081</v>
       </c>
     </row>
     <row r="13">
@@ -54302,28 +54302,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1336.08565242706</v>
+        <v>1589.128715817533</v>
       </c>
       <c r="AB13" t="n">
-        <v>1828.091333589635</v>
+        <v>2174.316016392558</v>
       </c>
       <c r="AC13" t="n">
-        <v>1653.62086245414</v>
+        <v>1966.802347459747</v>
       </c>
       <c r="AD13" t="n">
-        <v>1336085.65242706</v>
+        <v>1589128.715817533</v>
       </c>
       <c r="AE13" t="n">
-        <v>1828091.333589635</v>
+        <v>2174316.016392558</v>
       </c>
       <c r="AF13" t="n">
         <v>3.202853683950567e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.13425925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1653620.862454141</v>
+        <v>1966802.347459747</v>
       </c>
     </row>
     <row r="14">
@@ -54408,28 +54408,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1328.043993038163</v>
+        <v>1581.087056428636</v>
       </c>
       <c r="AB14" t="n">
-        <v>1817.088380440772</v>
+        <v>2163.313063243695</v>
       </c>
       <c r="AC14" t="n">
-        <v>1643.668015711064</v>
+        <v>1956.84950071667</v>
       </c>
       <c r="AD14" t="n">
-        <v>1328043.993038163</v>
+        <v>1581087.056428636</v>
       </c>
       <c r="AE14" t="n">
-        <v>1817088.380440772</v>
+        <v>2163313.063243695</v>
       </c>
       <c r="AF14" t="n">
         <v>3.210777336817736e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.00694444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1643668.015711064</v>
+        <v>1956849.50071667</v>
       </c>
     </row>
     <row r="15">
@@ -54514,28 +54514,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1306.261373683024</v>
+        <v>1559.371756881202</v>
       </c>
       <c r="AB15" t="n">
-        <v>1787.284439657728</v>
+        <v>2133.601232391492</v>
       </c>
       <c r="AC15" t="n">
-        <v>1616.70852120626</v>
+        <v>1929.973325300185</v>
       </c>
       <c r="AD15" t="n">
-        <v>1306261.373683024</v>
+        <v>1559371.756881202</v>
       </c>
       <c r="AE15" t="n">
-        <v>1787284.439657728</v>
+        <v>2133601.232391492</v>
       </c>
       <c r="AF15" t="n">
         <v>3.226624642552074e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.75231481481482</v>
       </c>
       <c r="AH15" t="n">
-        <v>1616708.521206259</v>
+        <v>1929973.325300185</v>
       </c>
     </row>
     <row r="16">
@@ -54620,28 +54620,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1296.927616471409</v>
+        <v>1550.037999669586</v>
       </c>
       <c r="AB16" t="n">
-        <v>1774.51358126449</v>
+        <v>2120.830373998254</v>
       </c>
       <c r="AC16" t="n">
-        <v>1605.15649561406</v>
+        <v>1918.421299707985</v>
       </c>
       <c r="AD16" t="n">
-        <v>1296927.616471409</v>
+        <v>1550037.999669587</v>
       </c>
       <c r="AE16" t="n">
-        <v>1774513.58126449</v>
+        <v>2120830.373998255</v>
       </c>
       <c r="AF16" t="n">
         <v>3.236670702437234e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.60185185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>1605156.49561406</v>
+        <v>1918421.299707985</v>
       </c>
     </row>
     <row r="17">
@@ -54726,28 +54726,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1292.729225999521</v>
+        <v>1545.839609197699</v>
       </c>
       <c r="AB17" t="n">
-        <v>1768.769158200937</v>
+        <v>2115.085950934701</v>
       </c>
       <c r="AC17" t="n">
-        <v>1599.960312225344</v>
+        <v>1913.225116319269</v>
       </c>
       <c r="AD17" t="n">
-        <v>1292729.225999521</v>
+        <v>1545839.609197699</v>
       </c>
       <c r="AE17" t="n">
-        <v>1768769.158200937</v>
+        <v>2115085.950934702</v>
       </c>
       <c r="AF17" t="n">
         <v>3.239359084660023e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.55555555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>1599960.312225344</v>
+        <v>1913225.116319269</v>
       </c>
     </row>
     <row r="18">
@@ -54832,28 +54832,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1282.341517702073</v>
+        <v>1535.350415673765</v>
       </c>
       <c r="AB18" t="n">
-        <v>1754.556237435021</v>
+        <v>2100.734173604697</v>
       </c>
       <c r="AC18" t="n">
-        <v>1587.103852669368</v>
+        <v>1900.243052474794</v>
       </c>
       <c r="AD18" t="n">
-        <v>1282341.517702073</v>
+        <v>1535350.415673765</v>
       </c>
       <c r="AE18" t="n">
-        <v>1754556.237435021</v>
+        <v>2100734.173604697</v>
       </c>
       <c r="AF18" t="n">
         <v>3.251386057761976e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.37037037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>1587103.852669368</v>
+        <v>1900243.052474794</v>
       </c>
     </row>
     <row r="19">
@@ -54938,28 +54938,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1278.113971746428</v>
+        <v>1531.122869718119</v>
       </c>
       <c r="AB19" t="n">
-        <v>1748.771922552343</v>
+        <v>2094.949858722018</v>
       </c>
       <c r="AC19" t="n">
-        <v>1581.871584680755</v>
+        <v>1895.010784486181</v>
       </c>
       <c r="AD19" t="n">
-        <v>1278113.971746427</v>
+        <v>1531122.869718119</v>
       </c>
       <c r="AE19" t="n">
-        <v>1748771.922552343</v>
+        <v>2094949.858722018</v>
       </c>
       <c r="AF19" t="n">
         <v>3.254781908990762e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.3125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1581871.584680755</v>
+        <v>1895010.784486181</v>
       </c>
     </row>
     <row r="20">
@@ -55044,28 +55044,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1269.482810370245</v>
+        <v>1522.491708341937</v>
       </c>
       <c r="AB20" t="n">
-        <v>1736.962386777483</v>
+        <v>2083.140322947159</v>
       </c>
       <c r="AC20" t="n">
-        <v>1571.189134425461</v>
+        <v>1884.328334230887</v>
       </c>
       <c r="AD20" t="n">
-        <v>1269482.810370245</v>
+        <v>1522491.708341937</v>
       </c>
       <c r="AE20" t="n">
-        <v>1736962.386777483</v>
+        <v>2083140.322947159</v>
       </c>
       <c r="AF20" t="n">
         <v>3.259592698231543e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.24305555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>1571189.134425461</v>
+        <v>1884328.334230887</v>
       </c>
     </row>
     <row r="21">
@@ -55150,28 +55150,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1262.235510275446</v>
+        <v>1515.244408247138</v>
       </c>
       <c r="AB21" t="n">
-        <v>1727.046311059466</v>
+        <v>2073.224247229141</v>
       </c>
       <c r="AC21" t="n">
-        <v>1562.219435056671</v>
+        <v>1875.358634862097</v>
       </c>
       <c r="AD21" t="n">
-        <v>1262235.510275446</v>
+        <v>1515244.408247138</v>
       </c>
       <c r="AE21" t="n">
-        <v>1727046.311059466</v>
+        <v>2073224.247229141</v>
       </c>
       <c r="AF21" t="n">
         <v>3.264827968875923e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.16203703703704</v>
       </c>
       <c r="AH21" t="n">
-        <v>1562219.435056671</v>
+        <v>1875358.634862097</v>
       </c>
     </row>
     <row r="22">
@@ -55256,28 +55256,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1255.453324061942</v>
+        <v>1498.794224078236</v>
       </c>
       <c r="AB22" t="n">
-        <v>1717.76662467321</v>
+        <v>2050.716379518342</v>
       </c>
       <c r="AC22" t="n">
-        <v>1553.825388914998</v>
+        <v>1854.998886455627</v>
       </c>
       <c r="AD22" t="n">
-        <v>1255453.324061942</v>
+        <v>1498794.224078236</v>
       </c>
       <c r="AE22" t="n">
-        <v>1717766.62467321</v>
+        <v>2050716.379518342</v>
       </c>
       <c r="AF22" t="n">
         <v>3.269780251917903e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.08101851851853</v>
       </c>
       <c r="AH22" t="n">
-        <v>1553825.388914998</v>
+        <v>1854998.886455627</v>
       </c>
     </row>
     <row r="23">
@@ -55362,28 +55362,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1251.264976889225</v>
+        <v>1494.605876905519</v>
       </c>
       <c r="AB23" t="n">
-        <v>1712.035943294663</v>
+        <v>2044.985698139795</v>
       </c>
       <c r="AC23" t="n">
-        <v>1548.641635724158</v>
+        <v>1849.815133264786</v>
       </c>
       <c r="AD23" t="n">
-        <v>1251264.976889225</v>
+        <v>1494605.876905519</v>
       </c>
       <c r="AE23" t="n">
-        <v>1712035.943294663</v>
+        <v>2044985.698139795</v>
       </c>
       <c r="AF23" t="n">
         <v>3.273459090749089e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.02314814814815</v>
       </c>
       <c r="AH23" t="n">
-        <v>1548641.635724158</v>
+        <v>1849815.133264786</v>
       </c>
     </row>
     <row r="24">
@@ -55468,28 +55468,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1252.669003325858</v>
+        <v>1496.009903342152</v>
       </c>
       <c r="AB24" t="n">
-        <v>1713.956994206539</v>
+        <v>2046.906749051671</v>
       </c>
       <c r="AC24" t="n">
-        <v>1550.379344233216</v>
+        <v>1851.552841773845</v>
       </c>
       <c r="AD24" t="n">
-        <v>1252669.003325858</v>
+        <v>1496009.903342152</v>
       </c>
       <c r="AE24" t="n">
-        <v>1713956.994206539</v>
+        <v>2046906.749051671</v>
       </c>
       <c r="AF24" t="n">
         <v>3.272610127941892e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.0462962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>1550379.344233216</v>
+        <v>1851552.841773845</v>
       </c>
     </row>
   </sheetData>
@@ -55765,28 +55765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.6783561633804</v>
+        <v>1036.373447534755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1072.26330035174</v>
+        <v>1418.01187248669</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.9279958971633</v>
+        <v>1282.678809568722</v>
       </c>
       <c r="AD2" t="n">
-        <v>783678.3561633804</v>
+        <v>1036373.447534755</v>
       </c>
       <c r="AE2" t="n">
-        <v>1072263.30035174</v>
+        <v>1418011.872486691</v>
       </c>
       <c r="AF2" t="n">
         <v>7.336233755089871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.15509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>969927.9958971633</v>
+        <v>1282678.809568722</v>
       </c>
     </row>
   </sheetData>
@@ -56062,28 +56062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1624.799350104073</v>
+        <v>1945.763532135082</v>
       </c>
       <c r="AB2" t="n">
-        <v>2223.122151900722</v>
+        <v>2662.279505695901</v>
       </c>
       <c r="AC2" t="n">
-        <v>2010.950493894853</v>
+        <v>2408.195286205038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1624799.350104073</v>
+        <v>1945763.532135082</v>
       </c>
       <c r="AE2" t="n">
-        <v>2223122.151900722</v>
+        <v>2662279.505695901</v>
       </c>
       <c r="AF2" t="n">
         <v>3.232631493546991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.00231481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2010950.493894853</v>
+        <v>2408195.286205037</v>
       </c>
     </row>
     <row r="3">
@@ -56168,28 +56168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1266.741047972786</v>
+        <v>1540.455525282442</v>
       </c>
       <c r="AB3" t="n">
-        <v>1733.210986507261</v>
+        <v>2107.719209792829</v>
       </c>
       <c r="AC3" t="n">
-        <v>1567.795762531905</v>
+        <v>1906.561446612691</v>
       </c>
       <c r="AD3" t="n">
-        <v>1266741.047972786</v>
+        <v>1540455.525282442</v>
       </c>
       <c r="AE3" t="n">
-        <v>1733210.986507261</v>
+        <v>2107719.209792829</v>
       </c>
       <c r="AF3" t="n">
         <v>3.837650459544295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.43518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1567795.762531905</v>
+        <v>1906561.446612691</v>
       </c>
     </row>
     <row r="4">
@@ -56274,28 +56274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.56121338808</v>
+        <v>1420.423640395487</v>
       </c>
       <c r="AB4" t="n">
-        <v>1594.772273089199</v>
+        <v>1943.486289457469</v>
       </c>
       <c r="AC4" t="n">
-        <v>1442.569445622508</v>
+        <v>1758.002685691786</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165561.21338808</v>
+        <v>1420423.640395487</v>
       </c>
       <c r="AE4" t="n">
-        <v>1594772.273089198</v>
+        <v>1943486.289457469</v>
       </c>
       <c r="AF4" t="n">
         <v>4.054169774007295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.42592592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1442569.445622508</v>
+        <v>1758002.685691786</v>
       </c>
     </row>
     <row r="5">
@@ -56380,28 +56380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1107.388032855759</v>
+        <v>1362.28361425209</v>
       </c>
       <c r="AB5" t="n">
-        <v>1515.177161065281</v>
+        <v>1863.936540731146</v>
       </c>
       <c r="AC5" t="n">
-        <v>1370.570779377712</v>
+        <v>1686.04505333513</v>
       </c>
       <c r="AD5" t="n">
-        <v>1107388.032855759</v>
+        <v>1362283.61425209</v>
       </c>
       <c r="AE5" t="n">
-        <v>1515177.161065281</v>
+        <v>1863936.540731146</v>
       </c>
       <c r="AF5" t="n">
         <v>4.16813715733311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.96759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1370570.779377712</v>
+        <v>1686045.05333513</v>
       </c>
     </row>
     <row r="6">
@@ -56486,28 +56486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1082.718148826124</v>
+        <v>1328.137467973016</v>
       </c>
       <c r="AB6" t="n">
-        <v>1481.422737377463</v>
+        <v>1817.216276970461</v>
       </c>
       <c r="AC6" t="n">
-        <v>1340.037830512028</v>
+        <v>1643.783705975463</v>
       </c>
       <c r="AD6" t="n">
-        <v>1082718.148826124</v>
+        <v>1328137.467973016</v>
       </c>
       <c r="AE6" t="n">
-        <v>1481422.737377463</v>
+        <v>1817216.276970461</v>
       </c>
       <c r="AF6" t="n">
         <v>4.230641436529861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.19212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1340037.830512028</v>
+        <v>1643783.705975463</v>
       </c>
     </row>
     <row r="7">
@@ -56592,28 +56592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1050.497400058243</v>
+        <v>1295.98403901284</v>
       </c>
       <c r="AB7" t="n">
-        <v>1437.336887434137</v>
+        <v>1773.222536957976</v>
       </c>
       <c r="AC7" t="n">
-        <v>1300.159472212413</v>
+        <v>1603.988666764168</v>
       </c>
       <c r="AD7" t="n">
-        <v>1050497.400058243</v>
+        <v>1295984.03901284</v>
       </c>
       <c r="AE7" t="n">
-        <v>1437336.887434137</v>
+        <v>1773222.536957976</v>
       </c>
       <c r="AF7" t="n">
         <v>4.281917402098455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.5787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1300159.472212414</v>
+        <v>1603988.666764168</v>
       </c>
     </row>
     <row r="8">
@@ -56698,28 +56698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1032.334052586727</v>
+        <v>1277.719206314838</v>
       </c>
       <c r="AB8" t="n">
-        <v>1412.48499411327</v>
+        <v>1748.231787073021</v>
       </c>
       <c r="AC8" t="n">
-        <v>1277.679408710239</v>
+        <v>1581.382998973495</v>
       </c>
       <c r="AD8" t="n">
-        <v>1032334.052586727</v>
+        <v>1277719.206314838</v>
       </c>
       <c r="AE8" t="n">
-        <v>1412484.99411327</v>
+        <v>1748231.787073021</v>
       </c>
       <c r="AF8" t="n">
         <v>4.311859571773546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.23148148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>1277679.408710239</v>
+        <v>1581382.998973495</v>
       </c>
     </row>
     <row r="9">
@@ -56804,28 +56804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1024.212232102237</v>
+        <v>1260.222608807396</v>
       </c>
       <c r="AB9" t="n">
-        <v>1401.372361016961</v>
+        <v>1724.292170467934</v>
       </c>
       <c r="AC9" t="n">
-        <v>1267.627349719963</v>
+        <v>1559.728145777734</v>
       </c>
       <c r="AD9" t="n">
-        <v>1024212.232102237</v>
+        <v>1260222.608807396</v>
       </c>
       <c r="AE9" t="n">
-        <v>1401372.361016961</v>
+        <v>1724292.170467934</v>
       </c>
       <c r="AF9" t="n">
         <v>4.324959271006399e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.08101851851853</v>
       </c>
       <c r="AH9" t="n">
-        <v>1267627.349719963</v>
+        <v>1559728.145777734</v>
       </c>
     </row>
     <row r="10">
@@ -56910,28 +56910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1027.681754100194</v>
+        <v>1263.692130805352</v>
       </c>
       <c r="AB10" t="n">
-        <v>1406.119514079073</v>
+        <v>1729.039323530046</v>
       </c>
       <c r="AC10" t="n">
-        <v>1271.921441156498</v>
+        <v>1564.02223721427</v>
       </c>
       <c r="AD10" t="n">
-        <v>1027681.754100194</v>
+        <v>1263692.130805352</v>
       </c>
       <c r="AE10" t="n">
-        <v>1406119.514079073</v>
+        <v>1729039.323530046</v>
       </c>
       <c r="AF10" t="n">
         <v>4.32458499388546e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.08101851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>1271921.441156498</v>
+        <v>1564022.23721427</v>
       </c>
     </row>
   </sheetData>
@@ -57207,28 +57207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2008.21572861932</v>
+        <v>2371.235419848405</v>
       </c>
       <c r="AB2" t="n">
-        <v>2747.729356122093</v>
+        <v>3244.428912960386</v>
       </c>
       <c r="AC2" t="n">
-        <v>2485.489922836172</v>
+        <v>2934.785171091903</v>
       </c>
       <c r="AD2" t="n">
-        <v>2008215.72861932</v>
+        <v>2371235.419848405</v>
       </c>
       <c r="AE2" t="n">
-        <v>2747729.356122093</v>
+        <v>3244428.912960386</v>
       </c>
       <c r="AF2" t="n">
         <v>2.617007308744592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2485489.922836172</v>
+        <v>2934785.171091903</v>
       </c>
     </row>
     <row r="3">
@@ -57313,28 +57313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1476.200773054562</v>
+        <v>1762.747726301742</v>
       </c>
       <c r="AB3" t="n">
-        <v>2019.803023075041</v>
+        <v>2411.869206067213</v>
       </c>
       <c r="AC3" t="n">
-        <v>1827.035857364105</v>
+        <v>2181.683794119849</v>
       </c>
       <c r="AD3" t="n">
-        <v>1476200.773054562</v>
+        <v>1762747.726301742</v>
       </c>
       <c r="AE3" t="n">
-        <v>2019803.02307504</v>
+        <v>2411869.206067213</v>
       </c>
       <c r="AF3" t="n">
         <v>3.255887029962469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.23611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1827035.857364105</v>
+        <v>2181683.794119849</v>
       </c>
     </row>
     <row r="4">
@@ -57419,28 +57419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1334.36971352075</v>
+        <v>1601.806770869686</v>
       </c>
       <c r="AB4" t="n">
-        <v>1825.743510276139</v>
+        <v>2191.662690631228</v>
       </c>
       <c r="AC4" t="n">
-        <v>1651.497112102494</v>
+        <v>1982.493479455289</v>
       </c>
       <c r="AD4" t="n">
-        <v>1334369.71352075</v>
+        <v>1601806.770869686</v>
       </c>
       <c r="AE4" t="n">
-        <v>1825743.510276139</v>
+        <v>2191662.690631228</v>
       </c>
       <c r="AF4" t="n">
         <v>3.492842419522151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.21990740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1651497.112102494</v>
+        <v>1982493.479455289</v>
       </c>
     </row>
     <row r="5">
@@ -57525,28 +57525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1266.55399601634</v>
+        <v>1524.436105416154</v>
       </c>
       <c r="AB5" t="n">
-        <v>1732.955053768301</v>
+        <v>2085.800732804848</v>
       </c>
       <c r="AC5" t="n">
-        <v>1567.564255654347</v>
+        <v>1886.734838305667</v>
       </c>
       <c r="AD5" t="n">
-        <v>1266553.99601634</v>
+        <v>1524436.105416154</v>
       </c>
       <c r="AE5" t="n">
-        <v>1732955.053768301</v>
+        <v>2085800.732804848</v>
       </c>
       <c r="AF5" t="n">
         <v>3.611653384892091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1567564.255654347</v>
+        <v>1886734.838305667</v>
       </c>
     </row>
     <row r="6">
@@ -57631,28 +57631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1225.180906881354</v>
+        <v>1483.028850862387</v>
       </c>
       <c r="AB6" t="n">
-        <v>1676.346567961941</v>
+        <v>2029.145500365239</v>
       </c>
       <c r="AC6" t="n">
-        <v>1516.358404282837</v>
+        <v>1835.486701733977</v>
       </c>
       <c r="AD6" t="n">
-        <v>1225180.906881354</v>
+        <v>1483028.850862387</v>
       </c>
       <c r="AE6" t="n">
-        <v>1676346.567961941</v>
+        <v>2029145.500365239</v>
       </c>
       <c r="AF6" t="n">
         <v>3.687305808844338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.30324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1516358.404282837</v>
+        <v>1835486.701733977</v>
       </c>
     </row>
     <row r="7">
@@ -57737,28 +57737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1194.462541051367</v>
+        <v>1452.377804840104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1634.316344634696</v>
+        <v>1987.207386968837</v>
       </c>
       <c r="AC7" t="n">
-        <v>1478.339486480156</v>
+        <v>1797.551103019615</v>
       </c>
       <c r="AD7" t="n">
-        <v>1194462.541051367</v>
+        <v>1452377.804840104</v>
       </c>
       <c r="AE7" t="n">
-        <v>1634316.344634696</v>
+        <v>1987207.386968837</v>
       </c>
       <c r="AF7" t="n">
         <v>3.733463785572912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.6550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1478339.486480156</v>
+        <v>1797551.103019615</v>
       </c>
     </row>
     <row r="8">
@@ -57843,28 +57843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1174.75089358884</v>
+        <v>1423.078055039532</v>
       </c>
       <c r="AB8" t="n">
-        <v>1607.345998959957</v>
+        <v>1947.118176677961</v>
       </c>
       <c r="AC8" t="n">
-        <v>1453.943152743496</v>
+        <v>1761.28795069334</v>
       </c>
       <c r="AD8" t="n">
-        <v>1174750.89358884</v>
+        <v>1423078.055039532</v>
       </c>
       <c r="AE8" t="n">
-        <v>1607345.998959957</v>
+        <v>1947118.176677961</v>
       </c>
       <c r="AF8" t="n">
         <v>3.772456444614379e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.12268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1453943.152743496</v>
+        <v>1761287.950693341</v>
       </c>
     </row>
     <row r="9">
@@ -57949,28 +57949,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1149.240945782071</v>
+        <v>1397.635427040467</v>
       </c>
       <c r="AB9" t="n">
-        <v>1572.442162951266</v>
+        <v>1912.306450600111</v>
       </c>
       <c r="AC9" t="n">
-        <v>1422.370489855633</v>
+        <v>1729.798606893796</v>
       </c>
       <c r="AD9" t="n">
-        <v>1149240.945782071</v>
+        <v>1397635.427040467</v>
       </c>
       <c r="AE9" t="n">
-        <v>1572442.162951265</v>
+        <v>1912306.450600111</v>
       </c>
       <c r="AF9" t="n">
         <v>3.800951080067758e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.74074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1422370.489855633</v>
+        <v>1729798.606893796</v>
       </c>
     </row>
     <row r="10">
@@ -58055,28 +58055,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1134.223868895817</v>
+        <v>1382.516864927728</v>
       </c>
       <c r="AB10" t="n">
-        <v>1551.895135848818</v>
+        <v>1891.620566933575</v>
       </c>
       <c r="AC10" t="n">
-        <v>1403.784442181909</v>
+        <v>1711.086954931574</v>
       </c>
       <c r="AD10" t="n">
-        <v>1134223.868895817</v>
+        <v>1382516.864927728</v>
       </c>
       <c r="AE10" t="n">
-        <v>1551895.135848818</v>
+        <v>1891620.566933575</v>
       </c>
       <c r="AF10" t="n">
         <v>3.823613480194423e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.43981481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>1403784.442181909</v>
+        <v>1711086.954931574</v>
       </c>
     </row>
     <row r="11">
@@ -58161,28 +58161,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1121.95105723655</v>
+        <v>1370.244053268461</v>
       </c>
       <c r="AB11" t="n">
-        <v>1535.102933498371</v>
+        <v>1874.828364583128</v>
       </c>
       <c r="AC11" t="n">
-        <v>1388.594864055785</v>
+        <v>1695.89737680545</v>
       </c>
       <c r="AD11" t="n">
-        <v>1121951.05723655</v>
+        <v>1370244.053268461</v>
       </c>
       <c r="AE11" t="n">
-        <v>1535102.933498371</v>
+        <v>1874828.364583128</v>
       </c>
       <c r="AF11" t="n">
         <v>3.838777292043882e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.24305555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>1388594.864055785</v>
+        <v>1695897.37680545</v>
       </c>
     </row>
     <row r="12">
@@ -58267,28 +58267,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1108.651390409404</v>
+        <v>1347.457769329755</v>
       </c>
       <c r="AB12" t="n">
-        <v>1516.90574260558</v>
+        <v>1843.65116563829</v>
       </c>
       <c r="AC12" t="n">
-        <v>1372.134387521884</v>
+        <v>1667.695685970434</v>
       </c>
       <c r="AD12" t="n">
-        <v>1108651.390409404</v>
+        <v>1347457.769329755</v>
       </c>
       <c r="AE12" t="n">
-        <v>1516905.74260558</v>
+        <v>1843651.16563829</v>
       </c>
       <c r="AF12" t="n">
         <v>3.851941480352753e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.06944444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>1372134.387521884</v>
+        <v>1667695.685970434</v>
       </c>
     </row>
     <row r="13">
@@ -58373,28 +58373,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1094.803424483426</v>
+        <v>1343.163740323041</v>
       </c>
       <c r="AB13" t="n">
-        <v>1497.958344696517</v>
+        <v>1837.775885712115</v>
       </c>
       <c r="AC13" t="n">
-        <v>1354.995302676421</v>
+        <v>1662.381134514405</v>
       </c>
       <c r="AD13" t="n">
-        <v>1094803.424483426</v>
+        <v>1343163.740323041</v>
       </c>
       <c r="AE13" t="n">
-        <v>1497958.344696517</v>
+        <v>1837775.885712115</v>
       </c>
       <c r="AF13" t="n">
         <v>3.85910679803986e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>49.97685185185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>1354995.302676421</v>
+        <v>1662381.134514405</v>
       </c>
     </row>
     <row r="14">
@@ -58479,28 +58479,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1097.346066303586</v>
+        <v>1345.706382143202</v>
       </c>
       <c r="AB14" t="n">
-        <v>1501.437299408301</v>
+        <v>1841.254840423899</v>
       </c>
       <c r="AC14" t="n">
-        <v>1358.142230833256</v>
+        <v>1665.52806267124</v>
       </c>
       <c r="AD14" t="n">
-        <v>1097346.066303586</v>
+        <v>1345706.382143202</v>
       </c>
       <c r="AE14" t="n">
-        <v>1501437.299408301</v>
+        <v>1841254.840423899</v>
       </c>
       <c r="AF14" t="n">
         <v>3.859273433334909e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>49.97685185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>1358142.230833256</v>
+        <v>1665528.06267124</v>
       </c>
     </row>
   </sheetData>
